--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4212EC-72AB-4119-891F-B9873AAD11F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730EA97-BA5C-4516-B3D5-D2CCDB7BF8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflation" sheetId="3" r:id="rId1"/>
@@ -825,8 +825,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}" name="Table43" displayName="Table43" ref="A1:B41" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}" name="Table43" displayName="Table43" ref="A1:B42" totalsRowShown="0">
+  <autoFilter ref="A1:B42" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A0E3AFD9-0C26-4F88-AD5E-5D26787A0659}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3B68FA77-4534-45F6-AEC8-A7EB49BC4FA6}" name="Inflation"/>
@@ -1132,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76893C2-211B-4E90-98DA-BE834AF351FD}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,6 +1471,14 @@
         <v>5.38</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B42">
+        <v>2.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1481,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF92D9-3032-421F-B8A9-CE7E4AFF9111}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1972,6 +1980,14 @@
         <v>9.8685258576164475E-2</v>
       </c>
     </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.1187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1979,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F47437D-7E75-4F12-B808-E1DD7A31D524}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3769,6 +3785,26 @@
       </c>
       <c r="F89" s="4">
         <v>11.95612012774439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="6">
+        <v>45261</v>
+      </c>
+      <c r="B90" s="4">
+        <v>7</v>
+      </c>
+      <c r="C90" s="4">
+        <v>5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>5</v>
+      </c>
+      <c r="E90" s="4">
+        <v>5</v>
+      </c>
+      <c r="F90" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730EA97-BA5C-4516-B3D5-D2CCDB7BF8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93925C1-9451-4426-B447-11D0BF7C559C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflation" sheetId="3" r:id="rId1"/>
@@ -825,8 +825,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}" name="Table43" displayName="Table43" ref="A1:B42" totalsRowShown="0">
-  <autoFilter ref="A1:B42" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}" name="Table43" displayName="Table43" ref="A1:B41" totalsRowShown="0">
+  <autoFilter ref="A1:B41" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A0E3AFD9-0C26-4F88-AD5E-5D26787A0659}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3B68FA77-4534-45F6-AEC8-A7EB49BC4FA6}" name="Inflation"/>
@@ -1132,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76893C2-211B-4E90-98DA-BE834AF351FD}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,14 +1471,6 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
-        <v>45261</v>
-      </c>
-      <c r="B42">
-        <v>2.34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1489,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF92D9-3032-421F-B8A9-CE7E4AFF9111}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1980,14 +1972,6 @@
         <v>9.8685258576164475E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>45232</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.1187</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1995,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F47437D-7E75-4F12-B808-E1DD7A31D524}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113:D115"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3785,26 +3769,6 @@
       </c>
       <c r="F89" s="4">
         <v>11.95612012774439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="6">
-        <v>45261</v>
-      </c>
-      <c r="B90" s="4">
-        <v>7</v>
-      </c>
-      <c r="C90" s="4">
-        <v>5</v>
-      </c>
-      <c r="D90" s="4">
-        <v>5</v>
-      </c>
-      <c r="E90" s="4">
-        <v>5</v>
-      </c>
-      <c r="F90" s="4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93925C1-9451-4426-B447-11D0BF7C559C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622A873-D79B-4B92-AFAF-FBBA4BA4F153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflation" sheetId="3" r:id="rId1"/>
     <sheet name="BaseRate" sheetId="4" r:id="rId2"/>
     <sheet name="Interest" sheetId="5" r:id="rId3"/>
+    <sheet name="MajorIndicators" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +72,90 @@
   </si>
   <si>
     <t>WAIRC</t>
+  </si>
+  <si>
+    <t>Total Deposit/GDP</t>
+  </si>
+  <si>
+    <t>Total Credit/GDP</t>
+  </si>
+  <si>
+    <t>Total Credit/ Total Deposit</t>
+  </si>
+  <si>
+    <t>CD Ratio</t>
+  </si>
+  <si>
+    <t>Fixed Deposit/Total Deposit</t>
+  </si>
+  <si>
+    <t>Saving Deposit/Total Deposit</t>
+  </si>
+  <si>
+    <t>Current Deposit/Total Deposit</t>
+  </si>
+  <si>
+    <t>Call Deposit/Total Deposit</t>
+  </si>
+  <si>
+    <t>NPL/ Total Loan</t>
+  </si>
+  <si>
+    <t>Total LLP /Total Loan</t>
+  </si>
+  <si>
+    <t>Deprived Sector Loan/Total Loan</t>
+  </si>
+  <si>
+    <t>Cash &amp; Bank Balance/Total Deposit</t>
+  </si>
+  <si>
+    <t>Investment in GovSecurities/Total Deposit</t>
+  </si>
+  <si>
+    <t>Total Liquid Assets/Total Deposit</t>
+  </si>
+  <si>
+    <t>Core Capital/RWA</t>
+  </si>
+  <si>
+    <t>Total Capital/RWA</t>
+  </si>
+  <si>
+    <t>NOF Institutions</t>
+  </si>
+  <si>
+    <t>NOF Branches</t>
+  </si>
+  <si>
+    <t>NOF Deposit Accounts</t>
+  </si>
+  <si>
+    <t>NOF Loan Accounts</t>
+  </si>
+  <si>
+    <t>NOF Branchless Banking Centers</t>
+  </si>
+  <si>
+    <t>NOF Branchless Banking Customers</t>
+  </si>
+  <si>
+    <t>NOF Mobile Banking Customers</t>
+  </si>
+  <si>
+    <t>NOF Internet Banking Customers</t>
+  </si>
+  <si>
+    <t>NOF ATMs</t>
+  </si>
+  <si>
+    <t>NOF Debit Cards</t>
+  </si>
+  <si>
+    <t>NOF Credit Cards</t>
+  </si>
+  <si>
+    <t>NOF Prepaid Cards</t>
   </si>
 </sst>
 </file>
@@ -807,7 +892,10 @@
     <cellStyle name="Percent 67 2" xfId="285" xr:uid="{AF4BA093-A5F1-4E10-8BCD-B4CC5B38CB61}"/>
     <cellStyle name="SHEET" xfId="286" xr:uid="{C1C00168-D569-4754-8AD0-5E62001D0332}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -828,8 +916,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}" name="Table43" displayName="Table43" ref="A1:B41" totalsRowShown="0">
   <autoFilter ref="A1:B41" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0E3AFD9-0C26-4F88-AD5E-5D26787A0659}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A0E3AFD9-0C26-4F88-AD5E-5D26787A0659}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3B68FA77-4534-45F6-AEC8-A7EB49BC4FA6}" name="Inflation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9C5EAE7-9BE8-4A54-824F-7A89E5C941E6}" name="Table8" displayName="Table8" ref="A1:AC29" totalsRowShown="0">
+  <autoFilter ref="A1:AC29" xr:uid="{E9C5EAE7-9BE8-4A54-824F-7A89E5C941E6}"/>
+  <tableColumns count="29">
+    <tableColumn id="1" xr3:uid="{760FB75D-450D-4901-AD9A-C743AD067BAE}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7863A22D-2286-453D-B473-F4F5512D450F}" name="Total Deposit/GDP"/>
+    <tableColumn id="3" xr3:uid="{433ABB85-8BDD-4F34-86DB-15E6F29AFB10}" name="Total Credit/GDP"/>
+    <tableColumn id="4" xr3:uid="{66E070A6-D045-4323-A038-06A40DC15F66}" name="Total Credit/ Total Deposit"/>
+    <tableColumn id="5" xr3:uid="{CAFA2B1A-F34D-4A12-A4B9-CF75892E451E}" name="CD Ratio"/>
+    <tableColumn id="6" xr3:uid="{A488831E-0E98-4136-B0D1-A0519142F143}" name="Fixed Deposit/Total Deposit"/>
+    <tableColumn id="7" xr3:uid="{5B789BD6-3665-4E1C-8F5B-0BDAE79EAFE5}" name="Saving Deposit/Total Deposit"/>
+    <tableColumn id="8" xr3:uid="{3BC17B3F-37B0-48E4-988D-27F9496C231F}" name="Current Deposit/Total Deposit"/>
+    <tableColumn id="9" xr3:uid="{00560AE1-2127-4EC2-BFB6-33ED74E2BB36}" name="Call Deposit/Total Deposit"/>
+    <tableColumn id="10" xr3:uid="{19D1506C-8527-45A2-9F67-2D024CB03425}" name="NPL/ Total Loan"/>
+    <tableColumn id="11" xr3:uid="{1C1BC884-FC27-44B7-B0D3-3DAE73F9EE98}" name="Total LLP /Total Loan"/>
+    <tableColumn id="12" xr3:uid="{16F32F60-3FBF-4C57-AED4-46E8354AAE82}" name="Deprived Sector Loan/Total Loan"/>
+    <tableColumn id="13" xr3:uid="{4149A5F9-D4D6-41C2-9764-934470C7BAA7}" name="Cash &amp; Bank Balance/Total Deposit"/>
+    <tableColumn id="14" xr3:uid="{FE2DCEEB-88AD-427A-95B4-A44972196412}" name="Investment in GovSecurities/Total Deposit"/>
+    <tableColumn id="15" xr3:uid="{C4CF2CD6-010C-4393-98ED-683A631C8487}" name="Total Liquid Assets/Total Deposit"/>
+    <tableColumn id="16" xr3:uid="{E371C00B-9700-4158-B2C7-6908B94DD077}" name="Core Capital/RWA"/>
+    <tableColumn id="17" xr3:uid="{49948AAF-DEC8-4F1B-A381-603A73938C42}" name="Total Capital/RWA"/>
+    <tableColumn id="18" xr3:uid="{88A4AD77-2647-4D39-BD9E-0F68229E56E8}" name="NOF Institutions"/>
+    <tableColumn id="19" xr3:uid="{72C531E1-62B0-4590-AE89-9B2DC09A69FB}" name="NOF Branches"/>
+    <tableColumn id="20" xr3:uid="{AF208780-EC82-4F45-9672-40BB31295712}" name="NOF Deposit Accounts"/>
+    <tableColumn id="21" xr3:uid="{620DE6CF-2CA6-44EC-9814-363A11279FC6}" name="NOF Loan Accounts"/>
+    <tableColumn id="22" xr3:uid="{35E129E0-63D2-46AC-A5C8-B5ABFBDFD207}" name="NOF Branchless Banking Centers"/>
+    <tableColumn id="23" xr3:uid="{E873A59C-E128-4CF0-BEA0-5F225002D534}" name="NOF Branchless Banking Customers"/>
+    <tableColumn id="24" xr3:uid="{5222AD34-67EA-40CD-863D-1DB466253658}" name="NOF Mobile Banking Customers"/>
+    <tableColumn id="25" xr3:uid="{9267D968-3AA7-47BF-AB40-450073AC47C0}" name="NOF Internet Banking Customers"/>
+    <tableColumn id="26" xr3:uid="{54508134-995C-4C5A-B0D9-DFEDE228FF71}" name="NOF ATMs"/>
+    <tableColumn id="27" xr3:uid="{558A91C7-8F48-4BA2-9E08-A186E248C243}" name="NOF Debit Cards"/>
+    <tableColumn id="28" xr3:uid="{C756AD79-6628-4928-B4D9-D9205127EB3E}" name="NOF Credit Cards"/>
+    <tableColumn id="29" xr3:uid="{43D5E655-A3D3-4B8A-B079-9DDEB54B3FA2}" name="NOF Prepaid Cards"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1981,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F47437D-7E75-4F12-B808-E1DD7A31D524}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3774,6 +3900,2636 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DA4A4-6A20-47AA-B87A-E9203D34B4FB}">
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B2" s="1">
+        <v>96.701531268758927</v>
+      </c>
+      <c r="C2" s="1">
+        <v>88.199067145687366</v>
+      </c>
+      <c r="D2" s="1">
+        <v>91.207518628178718</v>
+      </c>
+      <c r="E2" s="1">
+        <v>87.45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>48.222612097625408</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34.227201743098369</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8.4117842523910067</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.0225424665500711</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.406351814851692</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.3965118186124839</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7.4327062267585493</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.2773581437125374</v>
+      </c>
+      <c r="N2" s="1">
+        <v>15.637492857537699</v>
+      </c>
+      <c r="O2" s="1">
+        <v>23.935659587652861</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10.915536636445051</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>14.13379273297671</v>
+      </c>
+      <c r="R2" s="1">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4766</v>
+      </c>
+      <c r="T2" s="1">
+        <v>32927622</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1366442</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1706</v>
+      </c>
+      <c r="W2" s="1">
+        <v>230154</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12638366</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1115532</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3982</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>8459435</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>192370</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>65786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B3" s="1">
+        <v>97.825730813818495</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90.886898884764406</v>
+      </c>
+      <c r="D3" s="1">
+        <v>92.90694598309716</v>
+      </c>
+      <c r="E3" s="1">
+        <v>87.89</v>
+      </c>
+      <c r="F3" s="1">
+        <v>48.766315697457323</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34.372869541942357</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.3728688349669333</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.3283314977708844</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.406351814851692</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.3256388918410811</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7.4327062267585493</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7.8191408735578918</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15.102093832351111</v>
+      </c>
+      <c r="O3" s="1">
+        <v>23.41630283973149</v>
+      </c>
+      <c r="P3" s="1">
+        <v>10.915536636445051</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>14.13379273297671</v>
+      </c>
+      <c r="R3" s="1">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4775</v>
+      </c>
+      <c r="T3" s="1">
+        <v>32927622</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1366442</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1706</v>
+      </c>
+      <c r="W3" s="1">
+        <v>230154</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12638366</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1115532</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>3990</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>8459435</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>192370</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>65786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100.1137696641658</v>
+      </c>
+      <c r="C4" s="1">
+        <v>93.715200530797219</v>
+      </c>
+      <c r="D4" s="1">
+        <v>93.608702224646237</v>
+      </c>
+      <c r="E4" s="1">
+        <v>88.79</v>
+      </c>
+      <c r="F4" s="1">
+        <v>49.302619101860238</v>
+      </c>
+      <c r="G4" s="1">
+        <v>34.013738570302301</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.3312412904124411</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.2304704586363666</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.2311642339464119</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.3339066304897771</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7.8013928115666626</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.9469863375258409</v>
+      </c>
+      <c r="N4" s="1">
+        <v>14.368485358941101</v>
+      </c>
+      <c r="O4" s="1">
+        <v>22.525484133681928</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10.40919112710867</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>13.41711718615635</v>
+      </c>
+      <c r="R4" s="1">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4822</v>
+      </c>
+      <c r="T4" s="1">
+        <v>34267464</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1416257</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1752</v>
+      </c>
+      <c r="W4" s="1">
+        <v>235481</v>
+      </c>
+      <c r="X4" s="1">
+        <v>13453739</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1193506</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>3997</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>8950632</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>204956</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>80693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B5" s="1">
+        <v>99.270990627386652</v>
+      </c>
+      <c r="C5" s="1">
+        <v>94.826061991574136</v>
+      </c>
+      <c r="D5" s="1">
+        <v>95.522429455250901</v>
+      </c>
+      <c r="E5" s="1">
+        <v>90.259999999999991</v>
+      </c>
+      <c r="F5" s="1">
+        <v>51.028268865412407</v>
+      </c>
+      <c r="G5" s="1">
+        <v>33.125574515140983</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.7722397952165903</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.9800235990369304</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.2311642339464119</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.3065655506810079</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.8013928115666626</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7.2894150024263817</v>
+      </c>
+      <c r="N5" s="1">
+        <v>14.70167165723687</v>
+      </c>
+      <c r="O5" s="1">
+        <v>22.272911343641681</v>
+      </c>
+      <c r="P5" s="1">
+        <v>10.40919112710867</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13.41711718615635</v>
+      </c>
+      <c r="R5" s="1">
+        <v>27</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4843</v>
+      </c>
+      <c r="T5" s="1">
+        <v>34267464</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1416257</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1752</v>
+      </c>
+      <c r="W5" s="1">
+        <v>235481</v>
+      </c>
+      <c r="X5" s="1">
+        <v>13453739</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1193506</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4026</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>8950632</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>204956</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>80693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B6" s="1">
+        <v>99.406790358129783</v>
+      </c>
+      <c r="C6" s="1">
+        <v>96.241587813640322</v>
+      </c>
+      <c r="D6" s="1">
+        <v>96.815909121412858</v>
+      </c>
+      <c r="E6" s="1">
+        <v>91.36999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>52.680006146988589</v>
+      </c>
+      <c r="G6" s="1">
+        <v>31.594879302730369</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.9754668305590766</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.7105954190838331</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.2311642339464119</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.2726404755502911</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7.8013928115666626</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6.9448056095882738</v>
+      </c>
+      <c r="N6" s="1">
+        <v>14.331465017044041</v>
+      </c>
+      <c r="O6" s="1">
+        <v>21.56184254923711</v>
+      </c>
+      <c r="P6" s="1">
+        <v>10.40919112710867</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>13.41711718615635</v>
+      </c>
+      <c r="R6" s="1">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4847</v>
+      </c>
+      <c r="T6" s="1">
+        <v>35261810</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1441299</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1752</v>
+      </c>
+      <c r="W6" s="1">
+        <v>235481</v>
+      </c>
+      <c r="X6" s="1">
+        <v>14145910</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1201373</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4032</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>9328064</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>210673</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>86553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101.3890814291903</v>
+      </c>
+      <c r="C7" s="1">
+        <v>97.398348483919563</v>
+      </c>
+      <c r="D7" s="1">
+        <v>96.063942104004681</v>
+      </c>
+      <c r="E7" s="1">
+        <v>89.95</v>
+      </c>
+      <c r="F7" s="1">
+        <v>52.518175606377888</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30.458542323352429</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.5482867752658525</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6.4230316350302488</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.2702755179960068</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7.8230896342106409</v>
+      </c>
+      <c r="N7" s="1">
+        <v>14.294667806438341</v>
+      </c>
+      <c r="O7" s="1">
+        <v>22.671928371329411</v>
+      </c>
+      <c r="P7" s="1">
+        <v>10.356225733560301</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>13.30844445911212</v>
+      </c>
+      <c r="R7" s="1">
+        <v>27</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4856</v>
+      </c>
+      <c r="T7" s="1">
+        <v>35780292</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1453733</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1626</v>
+      </c>
+      <c r="W7" s="1">
+        <v>262325</v>
+      </c>
+      <c r="X7" s="1">
+        <v>14363165</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1225628</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4065</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>9399525</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>215199</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>86799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B8" s="1">
+        <v>101.0540769117319</v>
+      </c>
+      <c r="C8" s="1">
+        <v>97.674149097340646</v>
+      </c>
+      <c r="D8" s="1">
+        <v>96.655327605096545</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90.53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>52.747414603152301</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30.38244732210925</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.2531897379336954</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.473018207105782</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.2638649847455539</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6.9886397354035141</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15.311296201607069</v>
+      </c>
+      <c r="O8" s="1">
+        <v>23.01552447945101</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10.356225733560301</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>13.30844445911212</v>
+      </c>
+      <c r="R8" s="1">
+        <v>27</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4867</v>
+      </c>
+      <c r="T8" s="1">
+        <v>36219362</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1458751</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1568</v>
+      </c>
+      <c r="W8" s="1">
+        <v>266530</v>
+      </c>
+      <c r="X8" s="1">
+        <v>14561972</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1242649</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4077</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>9534380</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>216273</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>89684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B9" s="1">
+        <v>101.60027253033959</v>
+      </c>
+      <c r="C9" s="1">
+        <v>98.177319899842118</v>
+      </c>
+      <c r="D9" s="1">
+        <v>96.630961172397136</v>
+      </c>
+      <c r="E9" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>53.54115291751377</v>
+      </c>
+      <c r="G9" s="1">
+        <v>29.31114430752201</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9.4690181958742858</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.3742585614230416</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.252262399114866</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7.0822794259145967</v>
+      </c>
+      <c r="N9" s="1">
+        <v>15.35117903741186</v>
+      </c>
+      <c r="O9" s="1">
+        <v>23.220297289403732</v>
+      </c>
+      <c r="P9" s="1">
+        <v>10.356225733560301</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>13.30844445911212</v>
+      </c>
+      <c r="R9" s="1">
+        <v>27</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4930</v>
+      </c>
+      <c r="T9" s="1">
+        <v>36818548</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1488293</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1553</v>
+      </c>
+      <c r="W9" s="1">
+        <v>271113</v>
+      </c>
+      <c r="X9" s="1">
+        <v>14871058</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1257970</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4110</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>9742605</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>219946</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>92952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B10" s="1">
+        <v>90.489213290615737</v>
+      </c>
+      <c r="C10" s="1">
+        <v>86.653516505894785</v>
+      </c>
+      <c r="D10" s="1">
+        <v>95.761155782842081</v>
+      </c>
+      <c r="E10" s="1">
+        <v>90.36</v>
+      </c>
+      <c r="F10" s="1">
+        <v>53.905253239361052</v>
+      </c>
+      <c r="G10" s="1">
+        <v>28.77775134689211</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.8449083380708799</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6.1034305640928883</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.3186980247334199</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.327968889726701</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7.226919828547997</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7.3075473461097857</v>
+      </c>
+      <c r="N10" s="1">
+        <v>15.775633870432021</v>
+      </c>
+      <c r="O10" s="1">
+        <v>23.933241409248438</v>
+      </c>
+      <c r="P10" s="1">
+        <v>10.564925587261079</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>13.49442349981627</v>
+      </c>
+      <c r="R10" s="1">
+        <v>27</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4949</v>
+      </c>
+      <c r="T10" s="1">
+        <v>37484825</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1490204</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1518</v>
+      </c>
+      <c r="W10" s="1">
+        <v>274344</v>
+      </c>
+      <c r="X10" s="1">
+        <v>15333118</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1286558</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4118</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>9930979</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>227961</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>96026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B11" s="1">
+        <v>90.117298323497764</v>
+      </c>
+      <c r="C11" s="1">
+        <v>86.695106865894189</v>
+      </c>
+      <c r="D11" s="1">
+        <v>96.202514365978004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>90.52</v>
+      </c>
+      <c r="F11" s="1">
+        <v>54.566939026944262</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28.304135596769669</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.5882008219123502</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6.145229976100266</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.3186980247334199</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.3268520900860818</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.226919828547997</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6.7711420378287004</v>
+      </c>
+      <c r="N11" s="1">
+        <v>16.376873949203979</v>
+      </c>
+      <c r="O11" s="1">
+        <v>23.858988890736281</v>
+      </c>
+      <c r="P11" s="1">
+        <v>10.564925587261079</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>13.49442349981627</v>
+      </c>
+      <c r="R11" s="1">
+        <v>27</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4972</v>
+      </c>
+      <c r="T11" s="1">
+        <v>37909528</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1489942</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1522</v>
+      </c>
+      <c r="W11" s="1">
+        <v>277201</v>
+      </c>
+      <c r="X11" s="1">
+        <v>15577669</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1224065</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4155</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>10073494</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>230522</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>99531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B12" s="1">
+        <v>90.738763167870758</v>
+      </c>
+      <c r="C12" s="1">
+        <v>86.801988948984814</v>
+      </c>
+      <c r="D12" s="1">
+        <v>95.661419572578097</v>
+      </c>
+      <c r="E12" s="1">
+        <v>89.77000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>55.030836410286852</v>
+      </c>
+      <c r="G12" s="1">
+        <v>27.37038450376571</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.9435407523918258</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6.2365523039655884</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.3186980247334199</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.3239869622077531</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7.226919828547997</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7.1285227938675702</v>
+      </c>
+      <c r="N12" s="1">
+        <v>17.396898064370529</v>
+      </c>
+      <c r="O12" s="1">
+        <v>25.264406196807151</v>
+      </c>
+      <c r="P12" s="1">
+        <v>10.564925587261079</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>13.49442349981627</v>
+      </c>
+      <c r="R12" s="1">
+        <v>27</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4994</v>
+      </c>
+      <c r="T12" s="1">
+        <v>38370270</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1501662.76182324</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1516</v>
+      </c>
+      <c r="W12" s="1">
+        <v>278855</v>
+      </c>
+      <c r="X12" s="1">
+        <v>15797042</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1237108</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4225</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>10298704</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>234628</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>102368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B13" s="1">
+        <v>93.683184092451711</v>
+      </c>
+      <c r="C13" s="1">
+        <v>86.223687917129439</v>
+      </c>
+      <c r="D13" s="1">
+        <v>92.037529202721359</v>
+      </c>
+      <c r="E13" s="1">
+        <v>86.429999999999993</v>
+      </c>
+      <c r="F13" s="1">
+        <v>53.61648799863994</v>
+      </c>
+      <c r="G13" s="1">
+        <v>27.75954498751376</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9.9799575174835944</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.2581757170241596</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.2009893119330299</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.2818229042005762</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6.828910526761101</v>
+      </c>
+      <c r="M13" s="1">
+        <v>8.1554392842495478</v>
+      </c>
+      <c r="N13" s="1">
+        <v>18.014875928268701</v>
+      </c>
+      <c r="O13" s="1">
+        <v>27.27391715609787</v>
+      </c>
+      <c r="P13" s="1">
+        <v>10.731261473507541</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>13.53412830630773</v>
+      </c>
+      <c r="R13" s="1">
+        <v>26</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5009</v>
+      </c>
+      <c r="T13" s="1">
+        <v>38892532</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1491767</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1526</v>
+      </c>
+      <c r="W13" s="1">
+        <v>283351</v>
+      </c>
+      <c r="X13" s="1">
+        <v>16091464</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1279475</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4235</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>10274413</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>238794</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>105121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B14" s="1">
+        <v>91.407581698923963</v>
+      </c>
+      <c r="C14" s="1">
+        <v>86.380322893145419</v>
+      </c>
+      <c r="D14" s="1">
+        <v>94.500173057485313</v>
+      </c>
+      <c r="E14" s="1">
+        <v>88.33</v>
+      </c>
+      <c r="F14" s="1">
+        <v>56.830440817086703</v>
+      </c>
+      <c r="G14" s="1">
+        <v>27.16647962925213</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8.177369915072461</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.3808828234025592</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.2009893119330299</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.277685234139835</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6.828910526761101</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6.5046172066838706</v>
+      </c>
+      <c r="N14" s="1">
+        <v>17.599202704080891</v>
+      </c>
+      <c r="O14" s="1">
+        <v>25.00300158150332</v>
+      </c>
+      <c r="P14" s="1">
+        <v>10.731261473507541</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>13.53412830630773</v>
+      </c>
+      <c r="R14" s="1">
+        <v>26</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5031</v>
+      </c>
+      <c r="T14" s="1">
+        <v>39413226</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1497764</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1481</v>
+      </c>
+      <c r="W14" s="1">
+        <v>291164</v>
+      </c>
+      <c r="X14" s="1">
+        <v>16346396</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1293663</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>4265</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>10480871</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>250612</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>107119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B15" s="1">
+        <v>92.508936842993677</v>
+      </c>
+      <c r="C15" s="1">
+        <v>86.776588931256697</v>
+      </c>
+      <c r="D15" s="1">
+        <v>93.803465797617022</v>
+      </c>
+      <c r="E15" s="1">
+        <v>87.71</v>
+      </c>
+      <c r="F15" s="1">
+        <v>56.835244603720767</v>
+      </c>
+      <c r="G15" s="1">
+        <v>26.729968681309771</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8.7263719070292343</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6.2537635324783309</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.2009893119330299</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.2672841649699911</v>
+      </c>
+      <c r="L15" s="1">
+        <v>6.828910526761101</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7.1022638095704522</v>
+      </c>
+      <c r="N15" s="1">
+        <v>16.44970302422643</v>
+      </c>
+      <c r="O15" s="1">
+        <v>24.9695380591094</v>
+      </c>
+      <c r="P15" s="1">
+        <v>10.731261473507541</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>13.53412830630773</v>
+      </c>
+      <c r="R15" s="1">
+        <v>26</v>
+      </c>
+      <c r="S15" s="1">
+        <v>5054</v>
+      </c>
+      <c r="T15" s="1">
+        <v>39880391</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1498603</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1472</v>
+      </c>
+      <c r="W15" s="1">
+        <v>296178</v>
+      </c>
+      <c r="X15" s="1">
+        <v>16512275</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1280515</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4291</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>10707067</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>258021</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>111857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B16" s="1">
+        <v>93.753710902638332</v>
+      </c>
+      <c r="C16" s="1">
+        <v>87.205946197895429</v>
+      </c>
+      <c r="D16" s="1">
+        <v>93.01599409591087</v>
+      </c>
+      <c r="E16" s="1">
+        <v>87.15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>56.881720419253199</v>
+      </c>
+      <c r="G16" s="1">
+        <v>26.896871454459909</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8.6378703122542184</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.265876545578748</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.834083195142306</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.5737469782716751</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6.7275609204409683</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7.8475889445911262</v>
+      </c>
+      <c r="N16" s="1">
+        <v>15.92547031268967</v>
+      </c>
+      <c r="O16" s="1">
+        <v>24.74868606489494</v>
+      </c>
+      <c r="P16" s="1">
+        <v>10.585063191152679</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>13.44566018319218</v>
+      </c>
+      <c r="R16" s="1">
+        <v>26</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5074</v>
+      </c>
+      <c r="T16" s="1">
+        <v>40473548</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1489762.5557463099</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1475</v>
+      </c>
+      <c r="W16" s="1">
+        <v>300723</v>
+      </c>
+      <c r="X16" s="1">
+        <v>16680601</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1286529</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>4295</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>10894119</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>262881</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>115083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B17" s="1">
+        <v>93.968705884294394</v>
+      </c>
+      <c r="C17" s="1">
+        <v>87.346234073168986</v>
+      </c>
+      <c r="D17" s="1">
+        <v>92.952470986160222</v>
+      </c>
+      <c r="E17" s="1">
+        <v>87.03</v>
+      </c>
+      <c r="F17" s="1">
+        <v>57.953409570953639</v>
+      </c>
+      <c r="G17" s="1">
+        <v>26.340020926550011</v>
+      </c>
+      <c r="H17" s="1">
+        <v>8.4030237404366641</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6.0776496435154952</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.834083195142306</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.569613251169359</v>
+      </c>
+      <c r="L17" s="1">
+        <v>6.7275609204409683</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7.4531088638645544</v>
+      </c>
+      <c r="N17" s="1">
+        <v>15.73428992465371</v>
+      </c>
+      <c r="O17" s="1">
+        <v>24.04362922140194</v>
+      </c>
+      <c r="P17" s="1">
+        <v>10.585063191152679</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>13.44566018319218</v>
+      </c>
+      <c r="R17" s="1">
+        <v>26</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5090</v>
+      </c>
+      <c r="T17" s="1">
+        <v>40861621</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1495780.5557463099</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1395</v>
+      </c>
+      <c r="W17" s="1">
+        <v>299728</v>
+      </c>
+      <c r="X17" s="1">
+        <v>16934219</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1311587</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>4327</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>11054835</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>269389</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>118737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B18" s="1">
+        <v>95.299438821443999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>87.499712651536512</v>
+      </c>
+      <c r="D18" s="1">
+        <v>91.815559182335477</v>
+      </c>
+      <c r="E18" s="1">
+        <v>85.99</v>
+      </c>
+      <c r="F18" s="1">
+        <v>58.222681399435608</v>
+      </c>
+      <c r="G18" s="1">
+        <v>25.965656620679901</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8.7395166269087365</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5.9090805074073689</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.834083195142306</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.5651060296392219</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6.7275609204409683</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7.4625158694789713</v>
+      </c>
+      <c r="N18" s="1">
+        <v>15.45309740364025</v>
+      </c>
+      <c r="O18" s="1">
+        <v>24.365604938204989</v>
+      </c>
+      <c r="P18" s="1">
+        <v>10.585063191152679</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>13.44566018319218</v>
+      </c>
+      <c r="R18" s="1">
+        <v>26</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5099</v>
+      </c>
+      <c r="T18" s="1">
+        <v>41137817</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1485750</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1398</v>
+      </c>
+      <c r="W18" s="1">
+        <v>302899</v>
+      </c>
+      <c r="X18" s="1">
+        <v>17234639</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1321484</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4363</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>11214490</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>269986</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>122642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B19" s="1">
+        <v>97.225251036360419</v>
+      </c>
+      <c r="C19" s="1">
+        <v>88.395985567315307</v>
+      </c>
+      <c r="D19" s="1">
+        <v>90.918752716058165</v>
+      </c>
+      <c r="E19" s="1">
+        <v>86.87</v>
+      </c>
+      <c r="F19" s="1">
+        <v>58.364702856388881</v>
+      </c>
+      <c r="G19" s="1">
+        <v>25.822588076286269</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.9774657891905623</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5.6895479881515243</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.493815159928868</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.5390976646019232</v>
+      </c>
+      <c r="L19" s="1">
+        <v>6.7096705788315294</v>
+      </c>
+      <c r="M19" s="1">
+        <v>8.0349408113330369</v>
+      </c>
+      <c r="N19" s="1">
+        <v>15.25274195725885</v>
+      </c>
+      <c r="O19" s="1">
+        <v>23.999634247404678</v>
+      </c>
+      <c r="P19" s="1">
+        <v>10.125154899143</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>13.00694957924291</v>
+      </c>
+      <c r="R19" s="1">
+        <v>22</v>
+      </c>
+      <c r="S19" s="1">
+        <v>5029</v>
+      </c>
+      <c r="T19" s="1">
+        <v>41626158</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1503766</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1402</v>
+      </c>
+      <c r="W19" s="1">
+        <v>303039</v>
+      </c>
+      <c r="X19" s="1">
+        <v>17471798</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1316944</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4274</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>11494790</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>275942</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>120775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B20" s="1">
+        <v>97.788538563074439</v>
+      </c>
+      <c r="C20" s="1">
+        <v>88.875782161594358</v>
+      </c>
+      <c r="D20" s="1">
+        <v>90.885684015278244</v>
+      </c>
+      <c r="E20" s="1">
+        <v>86.37</v>
+      </c>
+      <c r="F20" s="1">
+        <v>58.157366843673309</v>
+      </c>
+      <c r="G20" s="1">
+        <v>26.125433699325541</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8.8474832515052011</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5.8334093717347351</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.493815159928868</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.5253903263103421</v>
+      </c>
+      <c r="L20" s="1">
+        <v>6.7096705788315294</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6.8425023362354311</v>
+      </c>
+      <c r="N20" s="1">
+        <v>15.727939812379621</v>
+      </c>
+      <c r="O20" s="1">
+        <v>23.182036375973649</v>
+      </c>
+      <c r="P20" s="1">
+        <v>10.125154899143</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>13.00694957924291</v>
+      </c>
+      <c r="R20" s="1">
+        <v>22</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5045</v>
+      </c>
+      <c r="T20" s="1">
+        <v>41995817</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1508989</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1411</v>
+      </c>
+      <c r="W20" s="1">
+        <v>305156</v>
+      </c>
+      <c r="X20" s="1">
+        <v>17406887</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1302901</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>4317</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>11561577</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>278174</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>123721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>98.344087359949611</v>
+      </c>
+      <c r="C21" s="1">
+        <v>88.743212057747783</v>
+      </c>
+      <c r="D21" s="1">
+        <v>90.237465657633649</v>
+      </c>
+      <c r="E21" s="1">
+        <v>85.810766999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>57.851202853424269</v>
+      </c>
+      <c r="G21" s="1">
+        <v>25.968076019492489</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.0508460055205386</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6.1375635588742332</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.493815159928868</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.5291629107148168</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6.7096705788315294</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7.1826254511047471</v>
+      </c>
+      <c r="N21" s="1">
+        <v>16.050426889819949</v>
+      </c>
+      <c r="O21" s="1">
+        <v>24.028838152505639</v>
+      </c>
+      <c r="P21" s="1">
+        <v>10.03789472996951</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>12.898125049067991</v>
+      </c>
+      <c r="R21" s="1">
+        <v>21</v>
+      </c>
+      <c r="S21" s="1">
+        <v>5049</v>
+      </c>
+      <c r="T21" s="1">
+        <v>42360165</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1528172</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1345</v>
+      </c>
+      <c r="W21" s="1">
+        <v>304817</v>
+      </c>
+      <c r="X21" s="1">
+        <v>17382472</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1305874</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>4328</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>11106589</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>281873</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>126166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B22" s="1">
+        <v>89.804202939726608</v>
+      </c>
+      <c r="C22" s="1">
+        <v>80.521414648506948</v>
+      </c>
+      <c r="D22" s="1">
+        <v>89.663303066728474</v>
+      </c>
+      <c r="E22" s="1">
+        <v>85.351785000000007</v>
+      </c>
+      <c r="F22" s="1">
+        <v>58.263738009925511</v>
+      </c>
+      <c r="G22" s="1">
+        <v>25.99850609138565</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8.9811839736552539</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5.8039489921002536</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.232729193394587</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.5130303976844739</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6.4259589698799386</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7.127620665869526</v>
+      </c>
+      <c r="N22" s="1">
+        <v>16.327495333453669</v>
+      </c>
+      <c r="O22" s="1">
+        <v>24.284996383145561</v>
+      </c>
+      <c r="P22" s="1">
+        <v>10.158207456963201</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>13.01051554638506</v>
+      </c>
+      <c r="R22" s="1">
+        <v>21</v>
+      </c>
+      <c r="S22" s="1">
+        <v>5066</v>
+      </c>
+      <c r="T22" s="1">
+        <v>42809628</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1516843</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1331</v>
+      </c>
+      <c r="W22" s="1">
+        <v>304404</v>
+      </c>
+      <c r="X22" s="1">
+        <v>17694428</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1322103</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>4340</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>11318525</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>284972</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B23" s="1">
+        <v>89.993690758299039</v>
+      </c>
+      <c r="C23" s="1">
+        <v>80.359784085736905</v>
+      </c>
+      <c r="D23" s="1">
+        <v>89.294908797066185</v>
+      </c>
+      <c r="E23" s="1">
+        <v>84.974090000000004</v>
+      </c>
+      <c r="F23" s="1">
+        <v>58.198890142460982</v>
+      </c>
+      <c r="G23" s="1">
+        <v>26.145417956631601</v>
+      </c>
+      <c r="H23" s="1">
+        <v>8.6463850817595969</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6.053397418568025</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3.232729193394587</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.518084947320927</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6.4259589698799386</v>
+      </c>
+      <c r="M23" s="1">
+        <v>6.8538703195294586</v>
+      </c>
+      <c r="N23" s="1">
+        <v>16.686255731107991</v>
+      </c>
+      <c r="O23" s="1">
+        <v>24.445110931194218</v>
+      </c>
+      <c r="P23" s="1">
+        <v>10.097665538348011</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>12.946576706117799</v>
+      </c>
+      <c r="R23" s="1">
+        <v>21</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5003</v>
+      </c>
+      <c r="T23" s="1">
+        <v>43109676</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1516725</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1334</v>
+      </c>
+      <c r="W23" s="1">
+        <v>315628</v>
+      </c>
+      <c r="X23" s="1">
+        <v>17967229</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1315669</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>4327</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>10933962</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>274534</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>128975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B24" s="1">
+        <v>91.249372055400556</v>
+      </c>
+      <c r="C24" s="1">
+        <v>79.914896944045765</v>
+      </c>
+      <c r="D24" s="1">
+        <v>87.578571933105195</v>
+      </c>
+      <c r="E24" s="1">
+        <v>83.97</v>
+      </c>
+      <c r="F24" s="1">
+        <v>57.992754340973072</v>
+      </c>
+      <c r="G24" s="1">
+        <v>25.898006528412349</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8.9166439032238163</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.2513104072622507</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.232729193394587</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2.5321031549091</v>
+      </c>
+      <c r="L24" s="1">
+        <v>6.4259589698799386</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7.2446767170444266</v>
+      </c>
+      <c r="N24" s="1">
+        <v>17.069216852475009</v>
+      </c>
+      <c r="O24" s="1">
+        <v>25.006731169758972</v>
+      </c>
+      <c r="P24" s="1">
+        <v>10.0893759840532</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>12.94026798438605</v>
+      </c>
+      <c r="R24" s="1">
+        <v>21</v>
+      </c>
+      <c r="S24" s="1">
+        <v>5015</v>
+      </c>
+      <c r="T24" s="1">
+        <v>43546039</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1527353</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1309</v>
+      </c>
+      <c r="W24" s="1">
+        <v>319270</v>
+      </c>
+      <c r="X24" s="1">
+        <v>18220540</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1331969</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>4354</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>11365860</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>279663</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>133683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B25" s="1">
+        <v>94.516390821699176</v>
+      </c>
+      <c r="C25" s="1">
+        <v>80.154604670242975</v>
+      </c>
+      <c r="D25" s="1">
+        <v>84.804978240706362</v>
+      </c>
+      <c r="E25" s="1">
+        <v>81.623029000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>56.980119304091218</v>
+      </c>
+      <c r="G25" s="1">
+        <v>26.8661169082479</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8.6816664704845898</v>
+      </c>
+      <c r="I25" s="1">
+        <v>6.5640494370533498</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.9810817637805438</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2.5245307304394511</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6.4948439843486332</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8.2100000611805992</v>
+      </c>
+      <c r="N25" s="1">
+        <v>18.06719763815348</v>
+      </c>
+      <c r="O25" s="1">
+        <v>26.93030524195779</v>
+      </c>
+      <c r="P25" s="1">
+        <v>10.525995848796811</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>13.36664125617612</v>
+      </c>
+      <c r="R25" s="1">
+        <v>20</v>
+      </c>
+      <c r="S25" s="1">
+        <v>5049</v>
+      </c>
+      <c r="T25" s="1">
+        <v>43981888</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1512193</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1298</v>
+      </c>
+      <c r="W25" s="1">
+        <v>320700</v>
+      </c>
+      <c r="X25" s="1">
+        <v>18438455</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1347970</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>4465</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>11358426</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>283126</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>135626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B26" s="1">
+        <v>91.786290822503616</v>
+      </c>
+      <c r="C26" s="1">
+        <v>79.890841539631353</v>
+      </c>
+      <c r="D26" s="1">
+        <v>87.040058840730723</v>
+      </c>
+      <c r="E26" s="1">
+        <v>83.679999999999993</v>
+      </c>
+      <c r="F26" s="1">
+        <v>59.857295905985438</v>
+      </c>
+      <c r="G26" s="1">
+        <v>27.09297708684479</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5.6216572457053307</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6.4947342984967547</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2.9810817637805438</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3.4399806539899269</v>
+      </c>
+      <c r="L26" s="1">
+        <v>6.4948439843486332</v>
+      </c>
+      <c r="M26" s="1">
+        <v>6.7989488784377441</v>
+      </c>
+      <c r="N26" s="1">
+        <v>17.783699450637059</v>
+      </c>
+      <c r="O26" s="1">
+        <v>25.582735314171849</v>
+      </c>
+      <c r="P26" s="1">
+        <v>10.41747131841584</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>13.22686821419712</v>
+      </c>
+      <c r="R26" s="1">
+        <v>20</v>
+      </c>
+      <c r="S26" s="1">
+        <v>5021</v>
+      </c>
+      <c r="T26" s="1">
+        <v>44441508</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1517743</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1285</v>
+      </c>
+      <c r="W26" s="1">
+        <v>320380</v>
+      </c>
+      <c r="X26" s="1">
+        <v>18712695</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>1376533</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>4579</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>11493742</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>286849</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>141163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B27" s="1">
+        <v>94.069769355419837</v>
+      </c>
+      <c r="C27" s="1">
+        <v>80.808461395593824</v>
+      </c>
+      <c r="D27" s="1">
+        <v>85.902688982130513</v>
+      </c>
+      <c r="E27" s="1">
+        <v>82.631585999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>59.486911042032908</v>
+      </c>
+      <c r="G27" s="1">
+        <v>26.20726807714103</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7.0380616901713404</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6.3543018084359666</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.9810817637805438</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.4274254159401769</v>
+      </c>
+      <c r="L27" s="1">
+        <v>6.4948439843486332</v>
+      </c>
+      <c r="M27" s="1">
+        <v>7.4980293867248182</v>
+      </c>
+      <c r="N27" s="1">
+        <v>17.808786189089389</v>
+      </c>
+      <c r="O27" s="1">
+        <v>26.319257053369231</v>
+      </c>
+      <c r="P27" s="1">
+        <v>10.23843724078754</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>13.03091302752064</v>
+      </c>
+      <c r="R27" s="1">
+        <v>20</v>
+      </c>
+      <c r="S27" s="1">
+        <v>5016</v>
+      </c>
+      <c r="T27" s="1">
+        <v>44814267</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1518728</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1284</v>
+      </c>
+      <c r="W27" s="1">
+        <v>320346</v>
+      </c>
+      <c r="X27" s="1">
+        <v>18926749</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1367716</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>4588</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>11580159</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>290966</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>145938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B28" s="1">
+        <v>97.036202052861</v>
+      </c>
+      <c r="C28" s="1">
+        <v>82.216239666190688</v>
+      </c>
+      <c r="D28" s="1">
+        <v>84.72738826010827</v>
+      </c>
+      <c r="E28" s="1">
+        <v>81.665688000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>58.494594999127479</v>
+      </c>
+      <c r="G28" s="1">
+        <v>27.033412763100468</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7.5490194853381363</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6.0521753048387206</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.6084780641517269</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3.783544690508184</v>
+      </c>
+      <c r="L28" s="1">
+        <v>6.4232762791715707</v>
+      </c>
+      <c r="M28" s="1">
+        <v>7.3879783509893171</v>
+      </c>
+      <c r="N28" s="1">
+        <v>18.50453972968333</v>
+      </c>
+      <c r="O28" s="1">
+        <v>27.35894041725108</v>
+      </c>
+      <c r="P28" s="1">
+        <v>10.137533025787009</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>12.924140575298789</v>
+      </c>
+      <c r="R28" s="1">
+        <v>20</v>
+      </c>
+      <c r="S28" s="1">
+        <v>5015</v>
+      </c>
+      <c r="T28" s="1">
+        <v>45243527</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1524060</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1279</v>
+      </c>
+      <c r="W28" s="1">
+        <v>319781</v>
+      </c>
+      <c r="X28" s="1">
+        <v>19201179</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1102915</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>4658</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>11667570</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>297832</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>154800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B29" s="1">
+        <v>97.12378408752167</v>
+      </c>
+      <c r="C29" s="1">
+        <v>81.865148716866301</v>
+      </c>
+      <c r="D29" s="1">
+        <v>84.289496631530255</v>
+      </c>
+      <c r="E29" s="1">
+        <v>81.176113999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>58.678652241298963</v>
+      </c>
+      <c r="G29" s="1">
+        <v>27.523691139829971</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6.9730375071703588</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5.9596517128057931</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3.6084780641517269</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3.797494706433711</v>
+      </c>
+      <c r="L29" s="1">
+        <v>6.4232762791715707</v>
+      </c>
+      <c r="M29" s="1">
+        <v>7.8064898250570769</v>
+      </c>
+      <c r="N29" s="1">
+        <v>18.46287040896669</v>
+      </c>
+      <c r="O29" s="1">
+        <v>27.567318826344131</v>
+      </c>
+      <c r="P29" s="1">
+        <v>10.11095533109248</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>12.91941728740272</v>
+      </c>
+      <c r="R29" s="1">
+        <v>20</v>
+      </c>
+      <c r="S29" s="1">
+        <v>5008</v>
+      </c>
+      <c r="T29" s="1">
+        <v>45398207</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1514176</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1251</v>
+      </c>
+      <c r="W29" s="1">
+        <v>309209</v>
+      </c>
+      <c r="X29" s="1">
+        <v>19318416</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1232173</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>4667</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>11688938</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>299815</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>157129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622A873-D79B-4B92-AFAF-FBBA4BA4F153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2B42A-8569-4CE8-9059-983BDC82EBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
@@ -122,40 +122,40 @@
     <t>Total Capital/RWA</t>
   </si>
   <si>
-    <t>NOF Institutions</t>
+    <t>Total Institutions</t>
   </si>
   <si>
-    <t>NOF Branches</t>
+    <t>Total Branches</t>
   </si>
   <si>
-    <t>NOF Deposit Accounts</t>
+    <t>Total Deposit Accounts</t>
   </si>
   <si>
-    <t>NOF Loan Accounts</t>
+    <t>Total Loan Accounts</t>
   </si>
   <si>
-    <t>NOF Branchless Banking Centers</t>
+    <t>Total Mobile Banking Customers</t>
   </si>
   <si>
-    <t>NOF Branchless Banking Customers</t>
+    <t>Total Internet Banking Customers</t>
   </si>
   <si>
-    <t>NOF Mobile Banking Customers</t>
+    <t>Total Debit Cards</t>
   </si>
   <si>
-    <t>NOF Internet Banking Customers</t>
+    <t>Total Credit Cards</t>
   </si>
   <si>
-    <t>NOF ATMs</t>
+    <t>Total Prepaid Cards</t>
   </si>
   <si>
-    <t>NOF Debit Cards</t>
+    <t>Total BLB Customers</t>
   </si>
   <si>
-    <t>NOF Credit Cards</t>
+    <t>Total BLB Centers</t>
   </si>
   <si>
-    <t>NOF Prepaid Cards</t>
+    <t>Total no of Operating ATMs</t>
   </si>
 </sst>
 </file>
@@ -944,18 +944,18 @@
     <tableColumn id="15" xr3:uid="{C4CF2CD6-010C-4393-98ED-683A631C8487}" name="Total Liquid Assets/Total Deposit"/>
     <tableColumn id="16" xr3:uid="{E371C00B-9700-4158-B2C7-6908B94DD077}" name="Core Capital/RWA"/>
     <tableColumn id="17" xr3:uid="{49948AAF-DEC8-4F1B-A381-603A73938C42}" name="Total Capital/RWA"/>
-    <tableColumn id="18" xr3:uid="{88A4AD77-2647-4D39-BD9E-0F68229E56E8}" name="NOF Institutions"/>
-    <tableColumn id="19" xr3:uid="{72C531E1-62B0-4590-AE89-9B2DC09A69FB}" name="NOF Branches"/>
-    <tableColumn id="20" xr3:uid="{AF208780-EC82-4F45-9672-40BB31295712}" name="NOF Deposit Accounts"/>
-    <tableColumn id="21" xr3:uid="{620DE6CF-2CA6-44EC-9814-363A11279FC6}" name="NOF Loan Accounts"/>
-    <tableColumn id="22" xr3:uid="{35E129E0-63D2-46AC-A5C8-B5ABFBDFD207}" name="NOF Branchless Banking Centers"/>
-    <tableColumn id="23" xr3:uid="{E873A59C-E128-4CF0-BEA0-5F225002D534}" name="NOF Branchless Banking Customers"/>
-    <tableColumn id="24" xr3:uid="{5222AD34-67EA-40CD-863D-1DB466253658}" name="NOF Mobile Banking Customers"/>
-    <tableColumn id="25" xr3:uid="{9267D968-3AA7-47BF-AB40-450073AC47C0}" name="NOF Internet Banking Customers"/>
-    <tableColumn id="26" xr3:uid="{54508134-995C-4C5A-B0D9-DFEDE228FF71}" name="NOF ATMs"/>
-    <tableColumn id="27" xr3:uid="{558A91C7-8F48-4BA2-9E08-A186E248C243}" name="NOF Debit Cards"/>
-    <tableColumn id="28" xr3:uid="{C756AD79-6628-4928-B4D9-D9205127EB3E}" name="NOF Credit Cards"/>
-    <tableColumn id="29" xr3:uid="{43D5E655-A3D3-4B8A-B079-9DDEB54B3FA2}" name="NOF Prepaid Cards"/>
+    <tableColumn id="18" xr3:uid="{88A4AD77-2647-4D39-BD9E-0F68229E56E8}" name="Total Institutions"/>
+    <tableColumn id="19" xr3:uid="{72C531E1-62B0-4590-AE89-9B2DC09A69FB}" name="Total Branches"/>
+    <tableColumn id="20" xr3:uid="{AF208780-EC82-4F45-9672-40BB31295712}" name="Total Deposit Accounts"/>
+    <tableColumn id="21" xr3:uid="{620DE6CF-2CA6-44EC-9814-363A11279FC6}" name="Total Loan Accounts"/>
+    <tableColumn id="22" xr3:uid="{35E129E0-63D2-46AC-A5C8-B5ABFBDFD207}" name="Total BLB Centers"/>
+    <tableColumn id="23" xr3:uid="{E873A59C-E128-4CF0-BEA0-5F225002D534}" name="Total BLB Customers"/>
+    <tableColumn id="24" xr3:uid="{5222AD34-67EA-40CD-863D-1DB466253658}" name="Total Mobile Banking Customers"/>
+    <tableColumn id="25" xr3:uid="{9267D968-3AA7-47BF-AB40-450073AC47C0}" name="Total Internet Banking Customers"/>
+    <tableColumn id="26" xr3:uid="{54508134-995C-4C5A-B0D9-DFEDE228FF71}" name="Total no of Operating ATMs"/>
+    <tableColumn id="27" xr3:uid="{558A91C7-8F48-4BA2-9E08-A186E248C243}" name="Total Debit Cards"/>
+    <tableColumn id="28" xr3:uid="{C756AD79-6628-4928-B4D9-D9205127EB3E}" name="Total Credit Cards"/>
+    <tableColumn id="29" xr3:uid="{43D5E655-A3D3-4B8A-B079-9DDEB54B3FA2}" name="Total Prepaid Cards"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3907,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DA4A4-6A20-47AA-B87A-E9203D34B4FB}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4009,28 +4009,28 @@
         <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:29">

--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2B42A-8569-4CE8-9059-983BDC82EBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B87E814-FD4D-4D3A-B68E-1667E8ABE117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>Total BLB Centers</t>
   </si>
   <si>
-    <t>Total no of Operating ATMs</t>
+    <t>Total number of Operating ATMs</t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
     <tableColumn id="23" xr3:uid="{E873A59C-E128-4CF0-BEA0-5F225002D534}" name="Total BLB Customers"/>
     <tableColumn id="24" xr3:uid="{5222AD34-67EA-40CD-863D-1DB466253658}" name="Total Mobile Banking Customers"/>
     <tableColumn id="25" xr3:uid="{9267D968-3AA7-47BF-AB40-450073AC47C0}" name="Total Internet Banking Customers"/>
-    <tableColumn id="26" xr3:uid="{54508134-995C-4C5A-B0D9-DFEDE228FF71}" name="Total no of Operating ATMs"/>
+    <tableColumn id="26" xr3:uid="{54508134-995C-4C5A-B0D9-DFEDE228FF71}" name="Total number of Operating ATMs"/>
     <tableColumn id="27" xr3:uid="{558A91C7-8F48-4BA2-9E08-A186E248C243}" name="Total Debit Cards"/>
     <tableColumn id="28" xr3:uid="{C756AD79-6628-4928-B4D9-D9205127EB3E}" name="Total Credit Cards"/>
     <tableColumn id="29" xr3:uid="{43D5E655-A3D3-4B8A-B079-9DDEB54B3FA2}" name="Total Prepaid Cards"/>
@@ -3905,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DA4A4-6A20-47AA-B87A-E9203D34B4FB}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4038,52 +4038,52 @@
         <v>44423</v>
       </c>
       <c r="B2" s="1">
-        <v>96.701531268758927</v>
+        <v>96.710000000000008</v>
       </c>
       <c r="C2" s="1">
-        <v>88.199067145687366</v>
+        <v>88.2</v>
       </c>
       <c r="D2" s="1">
-        <v>91.207518628178718</v>
+        <v>91.210000000000008</v>
       </c>
       <c r="E2" s="1">
         <v>87.45</v>
       </c>
       <c r="F2" s="1">
-        <v>48.222612097625408</v>
+        <v>48.23</v>
       </c>
       <c r="G2" s="1">
-        <v>34.227201743098369</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>8.4117842523910067</v>
+        <v>8.42</v>
       </c>
       <c r="I2" s="1">
-        <v>8.0225424665500711</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="J2" s="1">
-        <v>1.406351814851692</v>
+        <v>1.41</v>
       </c>
       <c r="K2" s="1">
-        <v>2.3965118186124839</v>
+        <v>2.4</v>
       </c>
       <c r="L2" s="1">
-        <v>7.4327062267585493</v>
+        <v>7.4399999999999995</v>
       </c>
       <c r="M2" s="1">
-        <v>7.2773581437125374</v>
+        <v>7.2799999999999994</v>
       </c>
       <c r="N2" s="1">
-        <v>15.637492857537699</v>
+        <v>15.64</v>
       </c>
       <c r="O2" s="1">
-        <v>23.935659587652861</v>
+        <v>23.94</v>
       </c>
       <c r="P2" s="1">
-        <v>10.915536636445051</v>
+        <v>10.92</v>
       </c>
       <c r="Q2" s="1">
-        <v>14.13379273297671</v>
+        <v>14.14</v>
       </c>
       <c r="R2" s="1">
         <v>27</v>
@@ -4127,52 +4127,52 @@
         <v>44454</v>
       </c>
       <c r="B3" s="1">
-        <v>97.825730813818495</v>
+        <v>97.83</v>
       </c>
       <c r="C3" s="1">
-        <v>90.886898884764406</v>
+        <v>90.89</v>
       </c>
       <c r="D3" s="1">
-        <v>92.90694598309716</v>
+        <v>92.910000000000011</v>
       </c>
       <c r="E3" s="1">
         <v>87.89</v>
       </c>
       <c r="F3" s="1">
-        <v>48.766315697457323</v>
+        <v>48.769999999999996</v>
       </c>
       <c r="G3" s="1">
-        <v>34.372869541942357</v>
+        <v>34.379999999999995</v>
       </c>
       <c r="H3" s="1">
-        <v>8.3728688349669333</v>
+        <v>8.379999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>7.3283314977708844</v>
+        <v>7.33</v>
       </c>
       <c r="J3" s="1">
-        <v>1.406351814851692</v>
+        <v>1.41</v>
       </c>
       <c r="K3" s="1">
-        <v>2.3256388918410811</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="L3" s="1">
-        <v>7.4327062267585493</v>
+        <v>7.4399999999999995</v>
       </c>
       <c r="M3" s="1">
-        <v>7.8191408735578918</v>
+        <v>7.8199999999999994</v>
       </c>
       <c r="N3" s="1">
-        <v>15.102093832351111</v>
+        <v>15.11</v>
       </c>
       <c r="O3" s="1">
-        <v>23.41630283973149</v>
+        <v>23.42</v>
       </c>
       <c r="P3" s="1">
-        <v>10.915536636445051</v>
+        <v>10.92</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.13379273297671</v>
+        <v>14.14</v>
       </c>
       <c r="R3" s="1">
         <v>27</v>
@@ -4216,52 +4216,52 @@
         <v>44484</v>
       </c>
       <c r="B4" s="1">
-        <v>100.1137696641658</v>
+        <v>100.12</v>
       </c>
       <c r="C4" s="1">
-        <v>93.715200530797219</v>
+        <v>93.72</v>
       </c>
       <c r="D4" s="1">
-        <v>93.608702224646237</v>
+        <v>93.61</v>
       </c>
       <c r="E4" s="1">
         <v>88.79</v>
       </c>
       <c r="F4" s="1">
-        <v>49.302619101860238</v>
+        <v>49.309999999999995</v>
       </c>
       <c r="G4" s="1">
-        <v>34.013738570302301</v>
+        <v>34.019999999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>8.3312412904124411</v>
+        <v>8.34</v>
       </c>
       <c r="I4" s="1">
-        <v>7.2304704586363666</v>
+        <v>7.24</v>
       </c>
       <c r="J4" s="1">
-        <v>1.2311642339464119</v>
+        <v>1.24</v>
       </c>
       <c r="K4" s="1">
-        <v>2.3339066304897771</v>
+        <v>2.34</v>
       </c>
       <c r="L4" s="1">
-        <v>7.8013928115666626</v>
+        <v>7.81</v>
       </c>
       <c r="M4" s="1">
-        <v>7.9469863375258409</v>
+        <v>7.95</v>
       </c>
       <c r="N4" s="1">
-        <v>14.368485358941101</v>
+        <v>14.37</v>
       </c>
       <c r="O4" s="1">
-        <v>22.525484133681928</v>
+        <v>22.53</v>
       </c>
       <c r="P4" s="1">
-        <v>10.40919112710867</v>
+        <v>10.41</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.41711718615635</v>
+        <v>13.42</v>
       </c>
       <c r="R4" s="1">
         <v>27</v>
@@ -4305,52 +4305,52 @@
         <v>44515</v>
       </c>
       <c r="B5" s="1">
-        <v>99.270990627386652</v>
+        <v>99.28</v>
       </c>
       <c r="C5" s="1">
-        <v>94.826061991574136</v>
+        <v>94.83</v>
       </c>
       <c r="D5" s="1">
-        <v>95.522429455250901</v>
+        <v>95.53</v>
       </c>
       <c r="E5" s="1">
-        <v>90.259999999999991</v>
+        <v>90.26</v>
       </c>
       <c r="F5" s="1">
-        <v>51.028268865412407</v>
+        <v>51.03</v>
       </c>
       <c r="G5" s="1">
-        <v>33.125574515140983</v>
+        <v>33.129999999999995</v>
       </c>
       <c r="H5" s="1">
-        <v>7.7722397952165903</v>
+        <v>7.7799999999999994</v>
       </c>
       <c r="I5" s="1">
-        <v>6.9800235990369304</v>
+        <v>6.99</v>
       </c>
       <c r="J5" s="1">
-        <v>1.2311642339464119</v>
+        <v>1.24</v>
       </c>
       <c r="K5" s="1">
-        <v>2.3065655506810079</v>
+        <v>2.3099999999999996</v>
       </c>
       <c r="L5" s="1">
-        <v>7.8013928115666626</v>
+        <v>7.81</v>
       </c>
       <c r="M5" s="1">
-        <v>7.2894150024263817</v>
+        <v>7.29</v>
       </c>
       <c r="N5" s="1">
-        <v>14.70167165723687</v>
+        <v>14.709999999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>22.272911343641681</v>
+        <v>22.28</v>
       </c>
       <c r="P5" s="1">
-        <v>10.40919112710867</v>
+        <v>10.41</v>
       </c>
       <c r="Q5" s="1">
-        <v>13.41711718615635</v>
+        <v>13.42</v>
       </c>
       <c r="R5" s="1">
         <v>27</v>
@@ -4394,52 +4394,52 @@
         <v>44545</v>
       </c>
       <c r="B6" s="1">
-        <v>99.406790358129783</v>
+        <v>99.410000000000011</v>
       </c>
       <c r="C6" s="1">
-        <v>96.241587813640322</v>
+        <v>96.25</v>
       </c>
       <c r="D6" s="1">
-        <v>96.815909121412858</v>
+        <v>96.820000000000007</v>
       </c>
       <c r="E6" s="1">
-        <v>91.36999999999999</v>
+        <v>91.37</v>
       </c>
       <c r="F6" s="1">
-        <v>52.680006146988589</v>
+        <v>52.69</v>
       </c>
       <c r="G6" s="1">
-        <v>31.594879302730369</v>
+        <v>31.6</v>
       </c>
       <c r="H6" s="1">
-        <v>7.9754668305590766</v>
+        <v>7.9799999999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>6.7105954190838331</v>
+        <v>6.72</v>
       </c>
       <c r="J6" s="1">
-        <v>1.2311642339464119</v>
+        <v>1.24</v>
       </c>
       <c r="K6" s="1">
-        <v>2.2726404755502911</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>7.8013928115666626</v>
+        <v>7.81</v>
       </c>
       <c r="M6" s="1">
-        <v>6.9448056095882738</v>
+        <v>6.95</v>
       </c>
       <c r="N6" s="1">
-        <v>14.331465017044041</v>
+        <v>14.34</v>
       </c>
       <c r="O6" s="1">
-        <v>21.56184254923711</v>
+        <v>21.57</v>
       </c>
       <c r="P6" s="1">
-        <v>10.40919112710867</v>
+        <v>10.41</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.41711718615635</v>
+        <v>13.42</v>
       </c>
       <c r="R6" s="1">
         <v>27</v>
@@ -4483,52 +4483,52 @@
         <v>44576</v>
       </c>
       <c r="B7" s="1">
-        <v>101.3890814291903</v>
+        <v>101.39</v>
       </c>
       <c r="C7" s="1">
-        <v>97.398348483919563</v>
+        <v>97.4</v>
       </c>
       <c r="D7" s="1">
-        <v>96.063942104004681</v>
+        <v>96.070000000000007</v>
       </c>
       <c r="E7" s="1">
         <v>89.95</v>
       </c>
       <c r="F7" s="1">
-        <v>52.518175606377888</v>
+        <v>52.519999999999996</v>
       </c>
       <c r="G7" s="1">
-        <v>30.458542323352429</v>
+        <v>30.46</v>
       </c>
       <c r="H7" s="1">
-        <v>9.5482867752658525</v>
+        <v>9.5499999999999989</v>
       </c>
       <c r="I7" s="1">
-        <v>6.4230316350302488</v>
+        <v>6.43</v>
       </c>
       <c r="J7" s="1">
         <v>1.18</v>
       </c>
       <c r="K7" s="1">
-        <v>2.2702755179960068</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L7" s="1">
         <v>7.69</v>
       </c>
       <c r="M7" s="1">
-        <v>7.8230896342106409</v>
+        <v>7.83</v>
       </c>
       <c r="N7" s="1">
-        <v>14.294667806438341</v>
+        <v>14.299999999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>22.671928371329411</v>
+        <v>22.680000000000003</v>
       </c>
       <c r="P7" s="1">
-        <v>10.356225733560301</v>
+        <v>10.36</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.30844445911212</v>
+        <v>13.31</v>
       </c>
       <c r="R7" s="1">
         <v>27</v>
@@ -4572,52 +4572,52 @@
         <v>44607</v>
       </c>
       <c r="B8" s="1">
-        <v>101.0540769117319</v>
+        <v>101.06</v>
       </c>
       <c r="C8" s="1">
-        <v>97.674149097340646</v>
+        <v>97.68</v>
       </c>
       <c r="D8" s="1">
-        <v>96.655327605096545</v>
+        <v>96.660000000000011</v>
       </c>
       <c r="E8" s="1">
         <v>90.53</v>
       </c>
       <c r="F8" s="1">
-        <v>52.747414603152301</v>
+        <v>52.75</v>
       </c>
       <c r="G8" s="1">
-        <v>30.38244732210925</v>
+        <v>30.39</v>
       </c>
       <c r="H8" s="1">
-        <v>9.2531897379336954</v>
+        <v>9.26</v>
       </c>
       <c r="I8" s="1">
-        <v>6.473018207105782</v>
+        <v>6.4799999999999995</v>
       </c>
       <c r="J8" s="1">
         <v>1.18</v>
       </c>
       <c r="K8" s="1">
-        <v>2.2638649847455539</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="L8" s="1">
         <v>7.69</v>
       </c>
       <c r="M8" s="1">
-        <v>6.9886397354035141</v>
+        <v>6.99</v>
       </c>
       <c r="N8" s="1">
-        <v>15.311296201607069</v>
+        <v>15.32</v>
       </c>
       <c r="O8" s="1">
-        <v>23.01552447945101</v>
+        <v>23.020000000000003</v>
       </c>
       <c r="P8" s="1">
-        <v>10.356225733560301</v>
+        <v>10.36</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.30844445911212</v>
+        <v>13.31</v>
       </c>
       <c r="R8" s="1">
         <v>27</v>
@@ -4661,52 +4661,52 @@
         <v>44635</v>
       </c>
       <c r="B9" s="1">
-        <v>101.60027253033959</v>
+        <v>101.61</v>
       </c>
       <c r="C9" s="1">
-        <v>98.177319899842118</v>
+        <v>98.18</v>
       </c>
       <c r="D9" s="1">
-        <v>96.630961172397136</v>
+        <v>96.64</v>
       </c>
       <c r="E9" s="1">
         <v>90.55</v>
       </c>
       <c r="F9" s="1">
-        <v>53.54115291751377</v>
+        <v>53.55</v>
       </c>
       <c r="G9" s="1">
-        <v>29.31114430752201</v>
+        <v>29.32</v>
       </c>
       <c r="H9" s="1">
-        <v>9.4690181958742858</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="I9" s="1">
-        <v>6.3742585614230416</v>
+        <v>6.38</v>
       </c>
       <c r="J9" s="1">
         <v>1.18</v>
       </c>
       <c r="K9" s="1">
-        <v>2.252262399114866</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L9" s="1">
         <v>7.69</v>
       </c>
       <c r="M9" s="1">
-        <v>7.0822794259145967</v>
+        <v>7.09</v>
       </c>
       <c r="N9" s="1">
-        <v>15.35117903741186</v>
+        <v>15.36</v>
       </c>
       <c r="O9" s="1">
-        <v>23.220297289403732</v>
+        <v>23.23</v>
       </c>
       <c r="P9" s="1">
-        <v>10.356225733560301</v>
+        <v>10.36</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.30844445911212</v>
+        <v>13.31</v>
       </c>
       <c r="R9" s="1">
         <v>27</v>
@@ -4750,52 +4750,52 @@
         <v>44666</v>
       </c>
       <c r="B10" s="1">
-        <v>90.489213290615737</v>
+        <v>90.490000000000009</v>
       </c>
       <c r="C10" s="1">
-        <v>86.653516505894785</v>
+        <v>86.660000000000011</v>
       </c>
       <c r="D10" s="1">
-        <v>95.761155782842081</v>
+        <v>95.77000000000001</v>
       </c>
       <c r="E10" s="1">
         <v>90.36</v>
       </c>
       <c r="F10" s="1">
-        <v>53.905253239361052</v>
+        <v>53.91</v>
       </c>
       <c r="G10" s="1">
-        <v>28.77775134689211</v>
+        <v>28.78</v>
       </c>
       <c r="H10" s="1">
-        <v>9.8449083380708799</v>
+        <v>9.85</v>
       </c>
       <c r="I10" s="1">
-        <v>6.1034305640928883</v>
+        <v>6.1099999999999994</v>
       </c>
       <c r="J10" s="1">
-        <v>1.3186980247334199</v>
+        <v>1.32</v>
       </c>
       <c r="K10" s="1">
-        <v>2.327968889726701</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="L10" s="1">
-        <v>7.226919828547997</v>
+        <v>7.2299999999999995</v>
       </c>
       <c r="M10" s="1">
-        <v>7.3075473461097857</v>
+        <v>7.31</v>
       </c>
       <c r="N10" s="1">
-        <v>15.775633870432021</v>
+        <v>15.78</v>
       </c>
       <c r="O10" s="1">
-        <v>23.933241409248438</v>
+        <v>23.94</v>
       </c>
       <c r="P10" s="1">
-        <v>10.564925587261079</v>
+        <v>10.57</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.49442349981627</v>
+        <v>13.5</v>
       </c>
       <c r="R10" s="1">
         <v>27</v>
@@ -4839,52 +4839,52 @@
         <v>44696</v>
       </c>
       <c r="B11" s="1">
-        <v>90.117298323497764</v>
+        <v>90.12</v>
       </c>
       <c r="C11" s="1">
-        <v>86.695106865894189</v>
+        <v>86.7</v>
       </c>
       <c r="D11" s="1">
-        <v>96.202514365978004</v>
+        <v>96.210000000000008</v>
       </c>
       <c r="E11" s="1">
         <v>90.52</v>
       </c>
       <c r="F11" s="1">
-        <v>54.566939026944262</v>
+        <v>54.57</v>
       </c>
       <c r="G11" s="1">
-        <v>28.304135596769669</v>
+        <v>28.310000000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>9.5882008219123502</v>
+        <v>9.59</v>
       </c>
       <c r="I11" s="1">
-        <v>6.145229976100266</v>
+        <v>6.1499999999999995</v>
       </c>
       <c r="J11" s="1">
-        <v>1.3186980247334199</v>
+        <v>1.32</v>
       </c>
       <c r="K11" s="1">
-        <v>2.3268520900860818</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="L11" s="1">
-        <v>7.226919828547997</v>
+        <v>7.2299999999999995</v>
       </c>
       <c r="M11" s="1">
-        <v>6.7711420378287004</v>
+        <v>6.7799999999999994</v>
       </c>
       <c r="N11" s="1">
-        <v>16.376873949203979</v>
+        <v>16.380000000000003</v>
       </c>
       <c r="O11" s="1">
-        <v>23.858988890736281</v>
+        <v>23.860000000000003</v>
       </c>
       <c r="P11" s="1">
-        <v>10.564925587261079</v>
+        <v>10.57</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.49442349981627</v>
+        <v>13.5</v>
       </c>
       <c r="R11" s="1">
         <v>27</v>
@@ -4928,52 +4928,52 @@
         <v>44727</v>
       </c>
       <c r="B12" s="1">
-        <v>90.738763167870758</v>
+        <v>90.740000000000009</v>
       </c>
       <c r="C12" s="1">
-        <v>86.801988948984814</v>
+        <v>86.81</v>
       </c>
       <c r="D12" s="1">
-        <v>95.661419572578097</v>
+        <v>95.67</v>
       </c>
       <c r="E12" s="1">
-        <v>89.77000000000001</v>
+        <v>89.77</v>
       </c>
       <c r="F12" s="1">
-        <v>55.030836410286852</v>
+        <v>55.04</v>
       </c>
       <c r="G12" s="1">
-        <v>27.37038450376571</v>
+        <v>27.380000000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>9.9435407523918258</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="I12" s="1">
-        <v>6.2365523039655884</v>
+        <v>6.24</v>
       </c>
       <c r="J12" s="1">
-        <v>1.3186980247334199</v>
+        <v>1.32</v>
       </c>
       <c r="K12" s="1">
-        <v>2.3239869622077531</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="L12" s="1">
-        <v>7.226919828547997</v>
+        <v>7.2299999999999995</v>
       </c>
       <c r="M12" s="1">
-        <v>7.1285227938675702</v>
+        <v>7.13</v>
       </c>
       <c r="N12" s="1">
-        <v>17.396898064370529</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="O12" s="1">
-        <v>25.264406196807151</v>
+        <v>25.270000000000003</v>
       </c>
       <c r="P12" s="1">
-        <v>10.564925587261079</v>
+        <v>10.57</v>
       </c>
       <c r="Q12" s="1">
-        <v>13.49442349981627</v>
+        <v>13.5</v>
       </c>
       <c r="R12" s="1">
         <v>27</v>
@@ -4985,7 +4985,7 @@
         <v>38370270</v>
       </c>
       <c r="U12" s="1">
-        <v>1501662.76182324</v>
+        <v>1501662</v>
       </c>
       <c r="V12" s="1">
         <v>1516</v>
@@ -5017,52 +5017,52 @@
         <v>44757</v>
       </c>
       <c r="B13" s="1">
-        <v>93.683184092451711</v>
+        <v>93.690000000000012</v>
       </c>
       <c r="C13" s="1">
-        <v>86.223687917129439</v>
+        <v>86.23</v>
       </c>
       <c r="D13" s="1">
-        <v>92.037529202721359</v>
+        <v>92.04</v>
       </c>
       <c r="E13" s="1">
-        <v>86.429999999999993</v>
+        <v>86.43</v>
       </c>
       <c r="F13" s="1">
-        <v>53.61648799863994</v>
+        <v>53.62</v>
       </c>
       <c r="G13" s="1">
-        <v>27.75954498751376</v>
+        <v>27.76</v>
       </c>
       <c r="H13" s="1">
-        <v>9.9799575174835944</v>
+        <v>9.98</v>
       </c>
       <c r="I13" s="1">
-        <v>7.2581757170241596</v>
+        <v>7.26</v>
       </c>
       <c r="J13" s="1">
-        <v>1.2009893119330299</v>
+        <v>1.21</v>
       </c>
       <c r="K13" s="1">
-        <v>2.2818229042005762</v>
+        <v>2.2899999999999996</v>
       </c>
       <c r="L13" s="1">
-        <v>6.828910526761101</v>
+        <v>6.83</v>
       </c>
       <c r="M13" s="1">
-        <v>8.1554392842495478</v>
+        <v>8.16</v>
       </c>
       <c r="N13" s="1">
-        <v>18.014875928268701</v>
+        <v>18.020000000000003</v>
       </c>
       <c r="O13" s="1">
-        <v>27.27391715609787</v>
+        <v>27.28</v>
       </c>
       <c r="P13" s="1">
-        <v>10.731261473507541</v>
+        <v>10.74</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.53412830630773</v>
+        <v>13.54</v>
       </c>
       <c r="R13" s="1">
         <v>26</v>
@@ -5106,52 +5106,52 @@
         <v>44788</v>
       </c>
       <c r="B14" s="1">
-        <v>91.407581698923963</v>
+        <v>91.410000000000011</v>
       </c>
       <c r="C14" s="1">
-        <v>86.380322893145419</v>
+        <v>86.39</v>
       </c>
       <c r="D14" s="1">
-        <v>94.500173057485313</v>
+        <v>94.51</v>
       </c>
       <c r="E14" s="1">
         <v>88.33</v>
       </c>
       <c r="F14" s="1">
-        <v>56.830440817086703</v>
+        <v>56.839999999999996</v>
       </c>
       <c r="G14" s="1">
-        <v>27.16647962925213</v>
+        <v>27.17</v>
       </c>
       <c r="H14" s="1">
-        <v>8.177369915072461</v>
+        <v>8.18</v>
       </c>
       <c r="I14" s="1">
-        <v>6.3808828234025592</v>
+        <v>6.39</v>
       </c>
       <c r="J14" s="1">
-        <v>1.2009893119330299</v>
+        <v>1.21</v>
       </c>
       <c r="K14" s="1">
-        <v>2.277685234139835</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L14" s="1">
-        <v>6.828910526761101</v>
+        <v>6.83</v>
       </c>
       <c r="M14" s="1">
-        <v>6.5046172066838706</v>
+        <v>6.51</v>
       </c>
       <c r="N14" s="1">
-        <v>17.599202704080891</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>25.00300158150332</v>
+        <v>25.01</v>
       </c>
       <c r="P14" s="1">
-        <v>10.731261473507541</v>
+        <v>10.74</v>
       </c>
       <c r="Q14" s="1">
-        <v>13.53412830630773</v>
+        <v>13.54</v>
       </c>
       <c r="R14" s="1">
         <v>26</v>
@@ -5195,52 +5195,52 @@
         <v>44819</v>
       </c>
       <c r="B15" s="1">
-        <v>92.508936842993677</v>
+        <v>92.51</v>
       </c>
       <c r="C15" s="1">
-        <v>86.776588931256697</v>
+        <v>86.78</v>
       </c>
       <c r="D15" s="1">
-        <v>93.803465797617022</v>
+        <v>93.81</v>
       </c>
       <c r="E15" s="1">
         <v>87.71</v>
       </c>
       <c r="F15" s="1">
-        <v>56.835244603720767</v>
+        <v>56.839999999999996</v>
       </c>
       <c r="G15" s="1">
-        <v>26.729968681309771</v>
+        <v>26.73</v>
       </c>
       <c r="H15" s="1">
-        <v>8.7263719070292343</v>
+        <v>8.73</v>
       </c>
       <c r="I15" s="1">
-        <v>6.2537635324783309</v>
+        <v>6.26</v>
       </c>
       <c r="J15" s="1">
-        <v>1.2009893119330299</v>
+        <v>1.21</v>
       </c>
       <c r="K15" s="1">
-        <v>2.2672841649699911</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="L15" s="1">
-        <v>6.828910526761101</v>
+        <v>6.83</v>
       </c>
       <c r="M15" s="1">
-        <v>7.1022638095704522</v>
+        <v>7.1099999999999994</v>
       </c>
       <c r="N15" s="1">
-        <v>16.44970302422643</v>
+        <v>16.450000000000003</v>
       </c>
       <c r="O15" s="1">
-        <v>24.9695380591094</v>
+        <v>24.970000000000002</v>
       </c>
       <c r="P15" s="1">
-        <v>10.731261473507541</v>
+        <v>10.74</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.53412830630773</v>
+        <v>13.54</v>
       </c>
       <c r="R15" s="1">
         <v>26</v>
@@ -5284,52 +5284,52 @@
         <v>44849</v>
       </c>
       <c r="B16" s="1">
-        <v>93.753710902638332</v>
+        <v>93.76</v>
       </c>
       <c r="C16" s="1">
-        <v>87.205946197895429</v>
+        <v>87.210000000000008</v>
       </c>
       <c r="D16" s="1">
-        <v>93.01599409591087</v>
+        <v>93.02000000000001</v>
       </c>
       <c r="E16" s="1">
         <v>87.15</v>
       </c>
       <c r="F16" s="1">
-        <v>56.881720419253199</v>
+        <v>56.89</v>
       </c>
       <c r="G16" s="1">
-        <v>26.896871454459909</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>8.6378703122542184</v>
+        <v>8.64</v>
       </c>
       <c r="I16" s="1">
-        <v>6.265876545578748</v>
+        <v>6.27</v>
       </c>
       <c r="J16" s="1">
-        <v>1.834083195142306</v>
+        <v>1.84</v>
       </c>
       <c r="K16" s="1">
-        <v>2.5737469782716751</v>
+        <v>2.5799999999999996</v>
       </c>
       <c r="L16" s="1">
-        <v>6.7275609204409683</v>
+        <v>6.7299999999999995</v>
       </c>
       <c r="M16" s="1">
-        <v>7.8475889445911262</v>
+        <v>7.85</v>
       </c>
       <c r="N16" s="1">
-        <v>15.92547031268967</v>
+        <v>15.93</v>
       </c>
       <c r="O16" s="1">
-        <v>24.74868606489494</v>
+        <v>24.75</v>
       </c>
       <c r="P16" s="1">
-        <v>10.585063191152679</v>
+        <v>10.59</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.44566018319218</v>
+        <v>13.45</v>
       </c>
       <c r="R16" s="1">
         <v>26</v>
@@ -5341,7 +5341,7 @@
         <v>40473548</v>
       </c>
       <c r="U16" s="1">
-        <v>1489762.5557463099</v>
+        <v>1489762</v>
       </c>
       <c r="V16" s="1">
         <v>1475</v>
@@ -5373,52 +5373,52 @@
         <v>44880</v>
       </c>
       <c r="B17" s="1">
-        <v>93.968705884294394</v>
+        <v>93.97</v>
       </c>
       <c r="C17" s="1">
-        <v>87.346234073168986</v>
+        <v>87.350000000000009</v>
       </c>
       <c r="D17" s="1">
-        <v>92.952470986160222</v>
+        <v>92.960000000000008</v>
       </c>
       <c r="E17" s="1">
         <v>87.03</v>
       </c>
       <c r="F17" s="1">
-        <v>57.953409570953639</v>
+        <v>57.96</v>
       </c>
       <c r="G17" s="1">
-        <v>26.340020926550011</v>
+        <v>26.35</v>
       </c>
       <c r="H17" s="1">
-        <v>8.4030237404366641</v>
+        <v>8.41</v>
       </c>
       <c r="I17" s="1">
-        <v>6.0776496435154952</v>
+        <v>6.08</v>
       </c>
       <c r="J17" s="1">
-        <v>1.834083195142306</v>
+        <v>1.84</v>
       </c>
       <c r="K17" s="1">
-        <v>2.569613251169359</v>
+        <v>2.57</v>
       </c>
       <c r="L17" s="1">
-        <v>6.7275609204409683</v>
+        <v>6.7299999999999995</v>
       </c>
       <c r="M17" s="1">
-        <v>7.4531088638645544</v>
+        <v>7.46</v>
       </c>
       <c r="N17" s="1">
-        <v>15.73428992465371</v>
+        <v>15.74</v>
       </c>
       <c r="O17" s="1">
-        <v>24.04362922140194</v>
+        <v>24.05</v>
       </c>
       <c r="P17" s="1">
-        <v>10.585063191152679</v>
+        <v>10.59</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.44566018319218</v>
+        <v>13.45</v>
       </c>
       <c r="R17" s="1">
         <v>26</v>
@@ -5430,7 +5430,7 @@
         <v>40861621</v>
       </c>
       <c r="U17" s="1">
-        <v>1495780.5557463099</v>
+        <v>1495780</v>
       </c>
       <c r="V17" s="1">
         <v>1395</v>
@@ -5462,52 +5462,52 @@
         <v>44910</v>
       </c>
       <c r="B18" s="1">
-        <v>95.299438821443999</v>
+        <v>95.300000000000011</v>
       </c>
       <c r="C18" s="1">
-        <v>87.499712651536512</v>
+        <v>87.5</v>
       </c>
       <c r="D18" s="1">
-        <v>91.815559182335477</v>
+        <v>91.820000000000007</v>
       </c>
       <c r="E18" s="1">
         <v>85.99</v>
       </c>
       <c r="F18" s="1">
-        <v>58.222681399435608</v>
+        <v>58.23</v>
       </c>
       <c r="G18" s="1">
-        <v>25.965656620679901</v>
+        <v>25.970000000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>8.7395166269087365</v>
+        <v>8.74</v>
       </c>
       <c r="I18" s="1">
-        <v>5.9090805074073689</v>
+        <v>5.91</v>
       </c>
       <c r="J18" s="1">
-        <v>1.834083195142306</v>
+        <v>1.84</v>
       </c>
       <c r="K18" s="1">
-        <v>2.5651060296392219</v>
+        <v>2.57</v>
       </c>
       <c r="L18" s="1">
-        <v>6.7275609204409683</v>
+        <v>6.7299999999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>7.4625158694789713</v>
+        <v>7.47</v>
       </c>
       <c r="N18" s="1">
-        <v>15.45309740364025</v>
+        <v>15.459999999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>24.365604938204989</v>
+        <v>24.37</v>
       </c>
       <c r="P18" s="1">
-        <v>10.585063191152679</v>
+        <v>10.59</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.44566018319218</v>
+        <v>13.45</v>
       </c>
       <c r="R18" s="1">
         <v>26</v>
@@ -5551,52 +5551,52 @@
         <v>44941</v>
       </c>
       <c r="B19" s="1">
-        <v>97.225251036360419</v>
+        <v>97.23</v>
       </c>
       <c r="C19" s="1">
-        <v>88.395985567315307</v>
+        <v>88.4</v>
       </c>
       <c r="D19" s="1">
-        <v>90.918752716058165</v>
+        <v>90.92</v>
       </c>
       <c r="E19" s="1">
         <v>86.87</v>
       </c>
       <c r="F19" s="1">
-        <v>58.364702856388881</v>
+        <v>58.37</v>
       </c>
       <c r="G19" s="1">
-        <v>25.822588076286269</v>
+        <v>25.830000000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>8.9774657891905623</v>
+        <v>8.98</v>
       </c>
       <c r="I19" s="1">
-        <v>5.6895479881515243</v>
+        <v>5.6899999999999995</v>
       </c>
       <c r="J19" s="1">
-        <v>2.493815159928868</v>
+        <v>2.5</v>
       </c>
       <c r="K19" s="1">
-        <v>2.5390976646019232</v>
+        <v>2.5399999999999996</v>
       </c>
       <c r="L19" s="1">
-        <v>6.7096705788315294</v>
+        <v>6.71</v>
       </c>
       <c r="M19" s="1">
-        <v>8.0349408113330369</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="N19" s="1">
-        <v>15.25274195725885</v>
+        <v>15.26</v>
       </c>
       <c r="O19" s="1">
-        <v>23.999634247404678</v>
+        <v>24</v>
       </c>
       <c r="P19" s="1">
-        <v>10.125154899143</v>
+        <v>10.129999999999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.00694957924291</v>
+        <v>13.01</v>
       </c>
       <c r="R19" s="1">
         <v>22</v>
@@ -5640,52 +5640,52 @@
         <v>44972</v>
       </c>
       <c r="B20" s="1">
-        <v>97.788538563074439</v>
+        <v>97.79</v>
       </c>
       <c r="C20" s="1">
-        <v>88.875782161594358</v>
+        <v>88.88000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>90.885684015278244</v>
+        <v>90.89</v>
       </c>
       <c r="E20" s="1">
         <v>86.37</v>
       </c>
       <c r="F20" s="1">
-        <v>58.157366843673309</v>
+        <v>58.16</v>
       </c>
       <c r="G20" s="1">
-        <v>26.125433699325541</v>
+        <v>26.130000000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>8.8474832515052011</v>
+        <v>8.85</v>
       </c>
       <c r="I20" s="1">
-        <v>5.8334093717347351</v>
+        <v>5.84</v>
       </c>
       <c r="J20" s="1">
-        <v>2.493815159928868</v>
+        <v>2.5</v>
       </c>
       <c r="K20" s="1">
-        <v>2.5253903263103421</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="L20" s="1">
-        <v>6.7096705788315294</v>
+        <v>6.71</v>
       </c>
       <c r="M20" s="1">
-        <v>6.8425023362354311</v>
+        <v>6.85</v>
       </c>
       <c r="N20" s="1">
-        <v>15.727939812379621</v>
+        <v>15.73</v>
       </c>
       <c r="O20" s="1">
-        <v>23.182036375973649</v>
+        <v>23.19</v>
       </c>
       <c r="P20" s="1">
-        <v>10.125154899143</v>
+        <v>10.129999999999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.00694957924291</v>
+        <v>13.01</v>
       </c>
       <c r="R20" s="1">
         <v>22</v>
@@ -5729,52 +5729,52 @@
         <v>45000</v>
       </c>
       <c r="B21" s="1">
-        <v>98.344087359949611</v>
+        <v>98.350000000000009</v>
       </c>
       <c r="C21" s="1">
-        <v>88.743212057747783</v>
+        <v>88.75</v>
       </c>
       <c r="D21" s="1">
-        <v>90.237465657633649</v>
+        <v>90.240000000000009</v>
       </c>
       <c r="E21" s="1">
-        <v>85.810766999999998</v>
+        <v>85.820000000000007</v>
       </c>
       <c r="F21" s="1">
-        <v>57.851202853424269</v>
+        <v>57.86</v>
       </c>
       <c r="G21" s="1">
-        <v>25.968076019492489</v>
+        <v>25.970000000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>9.0508460055205386</v>
+        <v>9.06</v>
       </c>
       <c r="I21" s="1">
-        <v>6.1375635588742332</v>
+        <v>6.14</v>
       </c>
       <c r="J21" s="1">
-        <v>2.493815159928868</v>
+        <v>2.5</v>
       </c>
       <c r="K21" s="1">
-        <v>2.5291629107148168</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="L21" s="1">
-        <v>6.7096705788315294</v>
+        <v>6.71</v>
       </c>
       <c r="M21" s="1">
-        <v>7.1826254511047471</v>
+        <v>7.1899999999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>16.050426889819949</v>
+        <v>16.060000000000002</v>
       </c>
       <c r="O21" s="1">
-        <v>24.028838152505639</v>
+        <v>24.03</v>
       </c>
       <c r="P21" s="1">
-        <v>10.03789472996951</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.898125049067991</v>
+        <v>12.9</v>
       </c>
       <c r="R21" s="1">
         <v>21</v>
@@ -5818,52 +5818,52 @@
         <v>45031</v>
       </c>
       <c r="B22" s="1">
-        <v>89.804202939726608</v>
+        <v>89.81</v>
       </c>
       <c r="C22" s="1">
-        <v>80.521414648506948</v>
+        <v>80.53</v>
       </c>
       <c r="D22" s="1">
-        <v>89.663303066728474</v>
+        <v>89.67</v>
       </c>
       <c r="E22" s="1">
-        <v>85.351785000000007</v>
+        <v>85.36</v>
       </c>
       <c r="F22" s="1">
-        <v>58.263738009925511</v>
+        <v>58.269999999999996</v>
       </c>
       <c r="G22" s="1">
-        <v>25.99850609138565</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1">
-        <v>8.9811839736552539</v>
+        <v>8.99</v>
       </c>
       <c r="I22" s="1">
-        <v>5.8039489921002536</v>
+        <v>5.81</v>
       </c>
       <c r="J22" s="1">
-        <v>3.232729193394587</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="K22" s="1">
-        <v>2.5130303976844739</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="L22" s="1">
-        <v>6.4259589698799386</v>
+        <v>6.43</v>
       </c>
       <c r="M22" s="1">
-        <v>7.127620665869526</v>
+        <v>7.13</v>
       </c>
       <c r="N22" s="1">
-        <v>16.327495333453669</v>
+        <v>16.330000000000002</v>
       </c>
       <c r="O22" s="1">
-        <v>24.284996383145561</v>
+        <v>24.290000000000003</v>
       </c>
       <c r="P22" s="1">
-        <v>10.158207456963201</v>
+        <v>10.16</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.01051554638506</v>
+        <v>13.02</v>
       </c>
       <c r="R22" s="1">
         <v>21</v>
@@ -5907,52 +5907,52 @@
         <v>45061</v>
       </c>
       <c r="B23" s="1">
-        <v>89.993690758299039</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1">
-        <v>80.359784085736905</v>
+        <v>80.36</v>
       </c>
       <c r="D23" s="1">
-        <v>89.294908797066185</v>
+        <v>89.300000000000011</v>
       </c>
       <c r="E23" s="1">
-        <v>84.974090000000004</v>
+        <v>84.98</v>
       </c>
       <c r="F23" s="1">
-        <v>58.198890142460982</v>
+        <v>58.199999999999996</v>
       </c>
       <c r="G23" s="1">
-        <v>26.145417956631601</v>
+        <v>26.150000000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>8.6463850817595969</v>
+        <v>8.65</v>
       </c>
       <c r="I23" s="1">
-        <v>6.053397418568025</v>
+        <v>6.06</v>
       </c>
       <c r="J23" s="1">
-        <v>3.232729193394587</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="K23" s="1">
-        <v>2.518084947320927</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="L23" s="1">
-        <v>6.4259589698799386</v>
+        <v>6.43</v>
       </c>
       <c r="M23" s="1">
-        <v>6.8538703195294586</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="N23" s="1">
-        <v>16.686255731107991</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>24.445110931194218</v>
+        <v>24.450000000000003</v>
       </c>
       <c r="P23" s="1">
-        <v>10.097665538348011</v>
+        <v>10.1</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.946576706117799</v>
+        <v>12.95</v>
       </c>
       <c r="R23" s="1">
         <v>21</v>
@@ -5996,52 +5996,52 @@
         <v>45092</v>
       </c>
       <c r="B24" s="1">
-        <v>91.249372055400556</v>
+        <v>91.25</v>
       </c>
       <c r="C24" s="1">
-        <v>79.914896944045765</v>
+        <v>79.92</v>
       </c>
       <c r="D24" s="1">
-        <v>87.578571933105195</v>
+        <v>87.58</v>
       </c>
       <c r="E24" s="1">
         <v>83.97</v>
       </c>
       <c r="F24" s="1">
-        <v>57.992754340973072</v>
+        <v>58</v>
       </c>
       <c r="G24" s="1">
-        <v>25.898006528412349</v>
+        <v>25.900000000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>8.9166439032238163</v>
+        <v>8.92</v>
       </c>
       <c r="I24" s="1">
-        <v>6.2513104072622507</v>
+        <v>6.26</v>
       </c>
       <c r="J24" s="1">
-        <v>3.232729193394587</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="K24" s="1">
-        <v>2.5321031549091</v>
+        <v>2.5399999999999996</v>
       </c>
       <c r="L24" s="1">
-        <v>6.4259589698799386</v>
+        <v>6.43</v>
       </c>
       <c r="M24" s="1">
-        <v>7.2446767170444266</v>
+        <v>7.25</v>
       </c>
       <c r="N24" s="1">
-        <v>17.069216852475009</v>
+        <v>17.07</v>
       </c>
       <c r="O24" s="1">
-        <v>25.006731169758972</v>
+        <v>25.01</v>
       </c>
       <c r="P24" s="1">
-        <v>10.0893759840532</v>
+        <v>10.09</v>
       </c>
       <c r="Q24" s="1">
-        <v>12.94026798438605</v>
+        <v>12.95</v>
       </c>
       <c r="R24" s="1">
         <v>21</v>
@@ -6085,52 +6085,52 @@
         <v>45122</v>
       </c>
       <c r="B25" s="1">
-        <v>94.516390821699176</v>
+        <v>94.52000000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>80.154604670242975</v>
+        <v>80.160000000000011</v>
       </c>
       <c r="D25" s="1">
-        <v>84.804978240706362</v>
+        <v>84.81</v>
       </c>
       <c r="E25" s="1">
-        <v>81.623029000000002</v>
+        <v>81.63000000000001</v>
       </c>
       <c r="F25" s="1">
-        <v>56.980119304091218</v>
+        <v>56.989999999999995</v>
       </c>
       <c r="G25" s="1">
-        <v>26.8661169082479</v>
+        <v>26.87</v>
       </c>
       <c r="H25" s="1">
-        <v>8.6816664704845898</v>
+        <v>8.69</v>
       </c>
       <c r="I25" s="1">
-        <v>6.5640494370533498</v>
+        <v>6.5699999999999994</v>
       </c>
       <c r="J25" s="1">
-        <v>2.9810817637805438</v>
+        <v>2.9899999999999998</v>
       </c>
       <c r="K25" s="1">
-        <v>2.5245307304394511</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="L25" s="1">
-        <v>6.4948439843486332</v>
+        <v>6.5</v>
       </c>
       <c r="M25" s="1">
-        <v>8.2100000611805992</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="N25" s="1">
-        <v>18.06719763815348</v>
+        <v>18.07</v>
       </c>
       <c r="O25" s="1">
-        <v>26.93030524195779</v>
+        <v>26.94</v>
       </c>
       <c r="P25" s="1">
-        <v>10.525995848796811</v>
+        <v>10.53</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.36664125617612</v>
+        <v>13.37</v>
       </c>
       <c r="R25" s="1">
         <v>20</v>
@@ -6174,52 +6174,52 @@
         <v>45153</v>
       </c>
       <c r="B26" s="1">
-        <v>91.786290822503616</v>
+        <v>91.79</v>
       </c>
       <c r="C26" s="1">
-        <v>79.890841539631353</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="D26" s="1">
-        <v>87.040058840730723</v>
+        <v>87.050000000000011</v>
       </c>
       <c r="E26" s="1">
-        <v>83.679999999999993</v>
+        <v>83.68</v>
       </c>
       <c r="F26" s="1">
-        <v>59.857295905985438</v>
+        <v>59.86</v>
       </c>
       <c r="G26" s="1">
-        <v>27.09297708684479</v>
+        <v>27.1</v>
       </c>
       <c r="H26" s="1">
-        <v>5.6216572457053307</v>
+        <v>5.63</v>
       </c>
       <c r="I26" s="1">
-        <v>6.4947342984967547</v>
+        <v>6.5</v>
       </c>
       <c r="J26" s="1">
-        <v>2.9810817637805438</v>
+        <v>2.9899999999999998</v>
       </c>
       <c r="K26" s="1">
-        <v>3.4399806539899269</v>
+        <v>3.44</v>
       </c>
       <c r="L26" s="1">
-        <v>6.4948439843486332</v>
+        <v>6.5</v>
       </c>
       <c r="M26" s="1">
-        <v>6.7989488784377441</v>
+        <v>6.8</v>
       </c>
       <c r="N26" s="1">
-        <v>17.783699450637059</v>
+        <v>17.790000000000003</v>
       </c>
       <c r="O26" s="1">
-        <v>25.582735314171849</v>
+        <v>25.59</v>
       </c>
       <c r="P26" s="1">
-        <v>10.41747131841584</v>
+        <v>10.42</v>
       </c>
       <c r="Q26" s="1">
-        <v>13.22686821419712</v>
+        <v>13.23</v>
       </c>
       <c r="R26" s="1">
         <v>20</v>
@@ -6263,52 +6263,52 @@
         <v>45184</v>
       </c>
       <c r="B27" s="1">
-        <v>94.069769355419837</v>
+        <v>94.070000000000007</v>
       </c>
       <c r="C27" s="1">
-        <v>80.808461395593824</v>
+        <v>80.81</v>
       </c>
       <c r="D27" s="1">
-        <v>85.902688982130513</v>
+        <v>85.910000000000011</v>
       </c>
       <c r="E27" s="1">
-        <v>82.631585999999999</v>
+        <v>82.64</v>
       </c>
       <c r="F27" s="1">
-        <v>59.486911042032908</v>
+        <v>59.489999999999995</v>
       </c>
       <c r="G27" s="1">
-        <v>26.20726807714103</v>
+        <v>26.21</v>
       </c>
       <c r="H27" s="1">
-        <v>7.0380616901713404</v>
+        <v>7.04</v>
       </c>
       <c r="I27" s="1">
-        <v>6.3543018084359666</v>
+        <v>6.3599999999999994</v>
       </c>
       <c r="J27" s="1">
-        <v>2.9810817637805438</v>
+        <v>2.9899999999999998</v>
       </c>
       <c r="K27" s="1">
-        <v>3.4274254159401769</v>
+        <v>3.4299999999999997</v>
       </c>
       <c r="L27" s="1">
-        <v>6.4948439843486332</v>
+        <v>6.5</v>
       </c>
       <c r="M27" s="1">
-        <v>7.4980293867248182</v>
+        <v>7.5</v>
       </c>
       <c r="N27" s="1">
-        <v>17.808786189089389</v>
+        <v>17.810000000000002</v>
       </c>
       <c r="O27" s="1">
-        <v>26.319257053369231</v>
+        <v>26.32</v>
       </c>
       <c r="P27" s="1">
-        <v>10.23843724078754</v>
+        <v>10.24</v>
       </c>
       <c r="Q27" s="1">
-        <v>13.03091302752064</v>
+        <v>13.04</v>
       </c>
       <c r="R27" s="1">
         <v>20</v>
@@ -6352,52 +6352,52 @@
         <v>45214</v>
       </c>
       <c r="B28" s="1">
-        <v>97.036202052861</v>
+        <v>97.04</v>
       </c>
       <c r="C28" s="1">
-        <v>82.216239666190688</v>
+        <v>82.22</v>
       </c>
       <c r="D28" s="1">
-        <v>84.72738826010827</v>
+        <v>84.73</v>
       </c>
       <c r="E28" s="1">
-        <v>81.665688000000003</v>
+        <v>81.67</v>
       </c>
       <c r="F28" s="1">
-        <v>58.494594999127479</v>
+        <v>58.5</v>
       </c>
       <c r="G28" s="1">
-        <v>27.033412763100468</v>
+        <v>27.040000000000003</v>
       </c>
       <c r="H28" s="1">
-        <v>7.5490194853381363</v>
+        <v>7.55</v>
       </c>
       <c r="I28" s="1">
-        <v>6.0521753048387206</v>
+        <v>6.06</v>
       </c>
       <c r="J28" s="1">
-        <v>3.6084780641517269</v>
+        <v>3.61</v>
       </c>
       <c r="K28" s="1">
-        <v>3.783544690508184</v>
+        <v>3.7899999999999996</v>
       </c>
       <c r="L28" s="1">
-        <v>6.4232762791715707</v>
+        <v>6.43</v>
       </c>
       <c r="M28" s="1">
-        <v>7.3879783509893171</v>
+        <v>7.39</v>
       </c>
       <c r="N28" s="1">
-        <v>18.50453972968333</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="O28" s="1">
-        <v>27.35894041725108</v>
+        <v>27.360000000000003</v>
       </c>
       <c r="P28" s="1">
-        <v>10.137533025787009</v>
+        <v>10.14</v>
       </c>
       <c r="Q28" s="1">
-        <v>12.924140575298789</v>
+        <v>12.93</v>
       </c>
       <c r="R28" s="1">
         <v>20</v>
@@ -6441,52 +6441,52 @@
         <v>45245</v>
       </c>
       <c r="B29" s="1">
-        <v>97.12378408752167</v>
+        <v>97.13000000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>81.865148716866301</v>
+        <v>81.87</v>
       </c>
       <c r="D29" s="1">
-        <v>84.289496631530255</v>
+        <v>84.29</v>
       </c>
       <c r="E29" s="1">
-        <v>81.176113999999998</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="F29" s="1">
-        <v>58.678652241298963</v>
+        <v>58.68</v>
       </c>
       <c r="G29" s="1">
-        <v>27.523691139829971</v>
+        <v>27.53</v>
       </c>
       <c r="H29" s="1">
-        <v>6.9730375071703588</v>
+        <v>6.9799999999999995</v>
       </c>
       <c r="I29" s="1">
-        <v>5.9596517128057931</v>
+        <v>5.96</v>
       </c>
       <c r="J29" s="1">
-        <v>3.6084780641517269</v>
+        <v>3.61</v>
       </c>
       <c r="K29" s="1">
-        <v>3.797494706433711</v>
+        <v>3.8</v>
       </c>
       <c r="L29" s="1">
-        <v>6.4232762791715707</v>
+        <v>6.43</v>
       </c>
       <c r="M29" s="1">
-        <v>7.8064898250570769</v>
+        <v>7.81</v>
       </c>
       <c r="N29" s="1">
-        <v>18.46287040896669</v>
+        <v>18.470000000000002</v>
       </c>
       <c r="O29" s="1">
-        <v>27.567318826344131</v>
+        <v>27.57</v>
       </c>
       <c r="P29" s="1">
-        <v>10.11095533109248</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="Q29" s="1">
-        <v>12.91941728740272</v>
+        <v>12.92</v>
       </c>
       <c r="R29" s="1">
         <v>20</v>
@@ -6524,6 +6524,521 @@
       <c r="AC29" s="1">
         <v>157129</v>
       </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="Q64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B87E814-FD4D-4D3A-B68E-1667E8ABE117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6E8123-AF7A-4402-9790-12D11EF94E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
@@ -913,8 +913,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}" name="Table43" displayName="Table43" ref="A1:B41" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}" name="Table43" displayName="Table43" ref="A1:B42" totalsRowShown="0">
+  <autoFilter ref="A1:B42" xr:uid="{CB7FDF7D-38EC-4F51-AEBA-1E0DE258BC3F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A0E3AFD9-0C26-4F88-AD5E-5D26787A0659}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3B68FA77-4534-45F6-AEC8-A7EB49BC4FA6}" name="Inflation"/>
@@ -1258,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76893C2-211B-4E90-98DA-BE834AF351FD}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1597,6 +1597,14 @@
         <v>5.38</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B42">
+        <v>4.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1607,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF92D9-3032-421F-B8A9-CE7E4AFF9111}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2098,6 +2106,11 @@
         <v>9.8685258576164475E-2</v>
       </c>
     </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>45261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2107,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F47437D-7E75-4F12-B808-E1DD7A31D524}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
@@ -3908,7 +3921,7 @@
   <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="E38" sqref="E37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6E8123-AF7A-4402-9790-12D11EF94E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62A447A-6B77-401C-BAE5-E57CD74BAC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflation" sheetId="3" r:id="rId1"/>
@@ -1615,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF92D9-3032-421F-B8A9-CE7E4AFF9111}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2104,11 +2104,6 @@
       </c>
       <c r="B60" s="3">
         <v>9.8685258576164475E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>45261</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +3915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DA4A4-6A20-47AA-B87A-E9203D34B4FB}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E37:E38"/>
     </sheetView>
   </sheetViews>

--- a/NRB_Data.xlsx
+++ b/NRB_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Multipage\streamlit-multipage-app-example\Multipage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62A447A-6B77-401C-BAE5-E57CD74BAC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22BC119-6CEB-4ED9-8424-825E81374792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
+    <workbookView xWindow="1170" yWindow="720" windowWidth="12690" windowHeight="15480" activeTab="3" xr2:uid="{0791D110-8641-419C-B9CC-40036BB56AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflation" sheetId="3" r:id="rId1"/>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -171,8 +171,9 @@
     <numFmt numFmtId="167" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +274,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,7 +298,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="290">
+  <cellStyleXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -585,8 +592,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -599,8 +607,21 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="289" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="289" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="290" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="290">
+  <cellStyles count="291">
+    <cellStyle name="Comma" xfId="290" builtinId="3"/>
     <cellStyle name="Comma 10" xfId="5" xr:uid="{E8D3A525-40C4-43CA-B971-3DEB9D712A5A}"/>
     <cellStyle name="Comma 10 2" xfId="64" xr:uid="{611B6105-78EB-46CE-9AE5-ADFDAA507CF7}"/>
     <cellStyle name="Comma 10 3" xfId="63" xr:uid="{0225F534-F2ED-4C09-9E27-12584DFEAFF5}"/>
@@ -924,8 +945,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9C5EAE7-9BE8-4A54-824F-7A89E5C941E6}" name="Table8" displayName="Table8" ref="A1:AC29" totalsRowShown="0">
-  <autoFilter ref="A1:AC29" xr:uid="{E9C5EAE7-9BE8-4A54-824F-7A89E5C941E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9C5EAE7-9BE8-4A54-824F-7A89E5C941E6}" name="Table8" displayName="Table8" ref="A1:AC30" totalsRowShown="0">
+  <autoFilter ref="A1:AC30" xr:uid="{E9C5EAE7-9BE8-4A54-824F-7A89E5C941E6}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{760FB75D-450D-4901-AD9A-C743AD067BAE}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7863A22D-2286-453D-B473-F4F5512D450F}" name="Total Deposit/GDP"/>
@@ -1261,7 +1282,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C61" sqref="C61:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1615,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF92D9-3032-421F-B8A9-CE7E4AFF9111}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2103,7 +2124,15 @@
         <v>45231</v>
       </c>
       <c r="B60" s="3">
-        <v>9.8685258576164475E-2</v>
+        <v>9.793751331570158E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B61" s="3">
+        <v>9.6850573511653992E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2113,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F47437D-7E75-4F12-B808-E1DD7A31D524}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3905,6 +3934,26 @@
         <v>11.95612012774439</v>
       </c>
     </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="6">
+        <v>45261</v>
+      </c>
+      <c r="B90" s="4">
+        <v>7.62</v>
+      </c>
+      <c r="C90" s="4">
+        <v>5.1345159721018998</v>
+      </c>
+      <c r="D90" s="4">
+        <v>9.6919935890012301</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2.0796671472612789</v>
+      </c>
+      <c r="F90" s="4">
+        <v>11.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3915,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DA4A4-6A20-47AA-B87A-E9203D34B4FB}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E37:E38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6533,6 +6582,95 @@
         <v>157129</v>
       </c>
     </row>
+    <row r="30" spans="1:29" ht="15.75">
+      <c r="A30" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B30" s="7">
+        <v>98.954757082548682</v>
+      </c>
+      <c r="C30" s="7">
+        <v>82.128123493657171</v>
+      </c>
+      <c r="D30" s="7">
+        <v>82.99562943209024</v>
+      </c>
+      <c r="E30" s="7">
+        <v>79.590838000000005</v>
+      </c>
+      <c r="F30" s="7">
+        <v>59.182581908461451</v>
+      </c>
+      <c r="G30" s="7">
+        <v>26.540568332320234</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7.1327967642672752</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6.3351322462508284</v>
+      </c>
+      <c r="J30" s="7">
+        <v>3.6084780641517273</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3.7854686776293853</v>
+      </c>
+      <c r="L30" s="7">
+        <v>6.4232762791715707</v>
+      </c>
+      <c r="M30" s="7">
+        <v>7.2395214600062445</v>
+      </c>
+      <c r="N30" s="7">
+        <v>18.871674739842277</v>
+      </c>
+      <c r="O30" s="7">
+        <v>27.352343059992474</v>
+      </c>
+      <c r="P30" s="8">
+        <v>9.7937599318525326</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>12.585459157221569</v>
+      </c>
+      <c r="R30" s="9">
+        <v>20</v>
+      </c>
+      <c r="S30" s="9">
+        <v>5022</v>
+      </c>
+      <c r="T30" s="9">
+        <v>45734977</v>
+      </c>
+      <c r="U30" s="9">
+        <v>1527714</v>
+      </c>
+      <c r="V30" s="9">
+        <v>1203</v>
+      </c>
+      <c r="W30" s="9">
+        <v>299373</v>
+      </c>
+      <c r="X30" s="9">
+        <v>19481654</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>1254850</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>4682</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>11695238</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>302269</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>162399</v>
+      </c>
+    </row>
     <row r="33" spans="2:17">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6549,24 +6687,6 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="2:17">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="1"/>
